--- a/dhis2/NhanLuc/MapCSYT 7 tỉnh/CSYT Son La.xlsx
+++ b/dhis2/NhanLuc/MapCSYT 7 tỉnh/CSYT Son La.xlsx
@@ -9,6 +9,7 @@
   </bookViews>
   <sheets>
     <sheet name="BHYT Sơn La" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="TKYT Son La" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'BHYT Sơn La'!$A$1:$J$168</definedName>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1346" uniqueCount="698">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2840" uniqueCount="1393">
   <si>
     <t xml:space="preserve">Mã tỉnh</t>
   </si>
@@ -1627,6 +1628,9 @@
     <t xml:space="preserve">TYT xã Pá Ma Pha Khinh</t>
   </si>
   <si>
+    <t xml:space="preserve">03697</t>
+  </si>
+  <si>
     <t xml:space="preserve">03859</t>
   </si>
   <si>
@@ -2117,6 +2121,2088 @@
   </si>
   <si>
     <t xml:space="preserve">TYT xã Yên Sơn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Code BHYT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ancestors</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.BVM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bệnh viện Mắt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P0yv39a22nl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Việt Nam, Sơn La</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14bvm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.BVNT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bệnh viện Nội tiết</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bzn4NpdjHlV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14bvnt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.BVPDL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bệnh viện Phong - Da liễu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RcOKyvwFgcm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14pdl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.BVP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bệnh viện Phổi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UP8hM1Ykacl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14bvlp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.BVPHCNT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bệnh viện Phục hồi chức năng</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HgP1pkyz90t</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14phcn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.BVTT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bệnh viện Tâm thần</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yG6i2LduaIH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14bvtt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.BVYT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bệnh viện Y học cổ truyền</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JsWBXoP763A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14yhct</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.BVDKCS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bệnh viện Đa khoa Cuộc Sống</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p1UYJ6EoGN6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14dkcs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">122.BVDKPY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bệnh viện Đa khoa Phù Yên</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fjhv2sccZZ3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Việt Nam, Sơn La, Huyện Phù Yên</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14dkpy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">123.BVDKTN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bệnh viện Đa khoa Thảo Nguyên</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gvPngCC55NY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Việt Nam, Sơn La, Huyện Mộc Châu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.BVDKT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bệnh viện Đa khoa tỉnh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Od6f1fMCBIT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14bvdk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">128.BVDKTN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bệnh viện đa khoa Thảo Nguyên</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gf3gPF9VGGb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Việt Nam, Sơn La, Huyện Vân Hồ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">128bvdk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">121.BVDKHBY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bệnh viện đa khoa huyện Bắc Yên</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MMX9Mo10ysX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Việt Nam, Sơn La, Huyện Bắc Yên</t>
+  </si>
+  <si>
+    <t xml:space="preserve">121bvdk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">125.BVDKHMS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bệnh viện đa khoa huyện Mai Sơn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uNsPELAHqXS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Việt Nam, Sơn La, Huyện Mai Sơn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">125bvdk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">120.BVDKHML</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bệnh viện đa khoa huyện Mường La</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tB50mSvjgcu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Việt Nam, Sơn La, Huyện Mường La</t>
+  </si>
+  <si>
+    <t xml:space="preserve">120bvdk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">123.BVDKHMC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bệnh viện đa khoa huyện Mộc Châu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MhuuwdLP1O2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">123bvdk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">118.BVDKHQN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bệnh viện đa khoa huyện Quỳnh Nhai</t>
+  </si>
+  <si>
+    <t xml:space="preserve">W5bB4H5ajiX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Việt Nam, Sơn La, Huyện Quỳnh Nhai</t>
+  </si>
+  <si>
+    <t xml:space="preserve">118bvdk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">126.BVDKHSM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bệnh viện đa khoa huyện Sông Mã</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gVOQGgJSK7G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Việt Nam, Sơn La, Huyện Sông Mã</t>
+  </si>
+  <si>
+    <t xml:space="preserve">126bvdk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">127.BVDKHSC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bệnh viện đa khoa huyện Sốp Cộp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SiXDvFxy5Tp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Việt Nam, Sơn La, Huyện Sốp Cộp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">127bvdk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">119.BVDKHTC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bệnh viện đa khoa huyện Thuận Châu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">QdcjC99XTl9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Việt Nam, Sơn La, Huyện Thuận Châu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">119bvdk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">124.BVDKHYC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bệnh viện đa khoa huyện Yên Châu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KVf15cRWGjS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Việt Nam, Sơn La, Huyện Yên Châu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">124bvdk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.CCA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chi cục An toàn vệ sinh thực phẩm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jASp13C5JqR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14attp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.CCDSK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chi cục Dân số kế hoạch hóa gia đình</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DyU6WGrjnNi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14ds</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Huyện Bắc Yên</t>
+  </si>
+  <si>
+    <t xml:space="preserve">StU2TJ9V87s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">121ttyt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Huyện Mai Sơn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hgf4aa2xdCK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">125ttyt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Huyện Mường La</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BLWJPKUSRRb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">120ttyt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Huyện Mộc Châu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jZ3Jdv88kh2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">123ttyt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Huyện Phù Yên</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OM6nQzv2HC3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">122ttyt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Huyện Quỳnh Nhai</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gsknQJZl6hr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">118ttyt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Huyện Sông Mã</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kb7Co7Sc9Bm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">126ttyt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Huyện Sốp Cộp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JPipO4euf9J</t>
+  </si>
+  <si>
+    <t xml:space="preserve">127ttyt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Huyện Thuận Châu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DLz4OaNQHDA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">119ttyt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Huyện Vân Hồ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gP5Z2Rnyj3K</t>
+  </si>
+  <si>
+    <t xml:space="preserve">128ttyt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Huyện Yên Châu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">srl34gQDeNu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">124ttyt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">121.PHBY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PYT Huyện Bắc Yên</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jKu66MRhMvY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">125.PHMS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PYT Huyện Mai Sơn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VZlJIxFBAZP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">120.PHML</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PYT Huyện Mường La</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BuvqeYjvEQR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">123.PHMC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PYT Huyện Mộc Châu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rw0bKah4EjV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">122.PHPY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PYT Huyện Phù Yên</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IaBtOnOYXAw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">118.PHQN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PYT Huyện Quỳnh Nhai</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JlAxwIYM4MW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">126.PHSM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PYT Huyện Sông Mã</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vNSuXzKyQgm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">127.PHSC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PYT Huyện Sốp Cộp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">n3CNY4WpGBU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">119.PHTC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PYT Huyện Thuận Châu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ipc9TMcSvL7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">128.PHVH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PYT Huyện Vân Hồ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E3N3WvobnZg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">124.PHYC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PYT Huyện Yên Châu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jecpY8aOE7e</t>
+  </si>
+  <si>
+    <t xml:space="preserve">116.PTPSL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PYT Thành phố Sơn La</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JVl2LEc25Ak</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Việt Nam, Sơn La, Thành phố Sơn La</t>
+  </si>
+  <si>
+    <t xml:space="preserve">03667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phường Chiềng An</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OgKDm7J315m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">03670</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phường Chiềng Cơi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cpG0w0bglyV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">03646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phường Chiềng Lề</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uQPXabZSJSW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">03679</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phường Chiềng Sinh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kJF6Ikagwcf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">03652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phường Quyết Thắng</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S5ITnElmkf2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">03655</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phường Quyết Tâm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ph7UcPrspQT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">03649</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phường Tô Hiệu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VRtJbhZMvNy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pajSJ8hWr1F</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Việt Nam</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14syt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.SYT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sở Y tế</t>
+  </si>
+  <si>
+    <t xml:space="preserve">n0nH0O9WEuS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">121.THBY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TTYT Huyện Bắc Yên</t>
+  </si>
+  <si>
+    <t xml:space="preserve">crQHs5iB2sG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">125.THMS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TTYT Huyện Mai Sơn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RmewTNBi8RE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">120.THML</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TTYT Huyện Mường La</t>
+  </si>
+  <si>
+    <t xml:space="preserve">V0dW9Zg9wEr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">123.THMC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TTYT Huyện Mộc Châu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">XdOs2YeXeae</t>
+  </si>
+  <si>
+    <t xml:space="preserve">122.THPY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TTYT Huyện Phù Yên</t>
+  </si>
+  <si>
+    <t xml:space="preserve">eZYw4sZ9xK4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">118.THQN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TTYT Huyện Quỳnh Nhai</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uU9X9zgUFnU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">126.THSM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TTYT Huyện Sông Mã</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DnFpMLftmrB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">127.THSC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TTYT Huyện Sốp Cộp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DOM5VWaW9We</t>
+  </si>
+  <si>
+    <t xml:space="preserve">119.THTC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TTYT Huyện Thuận Châu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">q2G3ZMPXFVS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">128.THVH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TTYT Huyện Vân Hồ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Isx2YKATU0h</t>
+  </si>
+  <si>
+    <t xml:space="preserve">124.THYC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TTYT Huyện Yên Châu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">XknZOtU5QQY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">116.TTPSL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TTYT Thành phố Sơn La</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wppqsg1xgzw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">116</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thành phố Sơn La</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LssVNia5yOx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">116ttyt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thị Trấn Mộc Châu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RCX1JK4j8dy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thị trấn Bắc Yên</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WMpUgRn0l4i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thị trấn Hát Lót</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PP7xs9BqrDT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">03982</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thị trấn NT Mộc Châu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G5kdPEaDS1U</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thị trấn Phù Yên</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M2y6SkfBLSk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thị trấn Sông Mã</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KFtL2R2qBvw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thị trấn Thuận Châu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tpkf5fgAJ2M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thị trấn Yên Châu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rkDOqJevHJi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thị trấn Ít Ong</t>
+  </si>
+  <si>
+    <t xml:space="preserve">i5R9nMb3I2r</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.TTGDYK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trung tâm Giám định y khoa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ilR6bdBInpK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14gdyk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.TTKN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trung tâm Kiểm nghiệm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">s3qx0st6uR9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.TTKSBT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trung tâm Kiểm soát bệnh tật</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LCEHbyN32fo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.TTPY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trung tâm Pháp Y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">iQF4wuwXnaB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14py</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.TCDYTSL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trường Cao đẳng Y tế </t>
+  </si>
+  <si>
+    <t xml:space="preserve">z0A2LhWhWg0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14cdyt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Xã Bon Phặng</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CEHfO40vFyW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Xã Bó Mười</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WButhRTTUBO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Xã Bó Sinh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WmaSVSyUMdl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Xã Bản Lầm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mhBlUsmGsVi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Xã Bắc Phong</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pwdJkUxtmcY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Xã Chim Vàn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ivUndKT6vbD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Xã Chiềng Ban</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vSr3Ibkh1Ho</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Xã Chiềng Bôm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pUpK1FlItwI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Xã Chiềng Bằng</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PrTGhpAafUI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Xã Chiềng Cang</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bQZ8x8Ol7IV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Xã Chiềng Chung</t>
+  </si>
+  <si>
+    <t xml:space="preserve">srcsHTSwVvB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Xã Chiềng Chăn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pjh9U0CidXs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Xã Chiềng Công</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NAWL1uu578Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">03658</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Xã Chiềng Cọ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ZnnYHO6AEuC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Xã Chiềng Dong</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Da7G5wxRaGY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Xã Chiềng En</t>
+  </si>
+  <si>
+    <t xml:space="preserve">zjKu8AD8m2S</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Xã Chiềng Hoa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UMWMmesdOg7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Xã Chiềng Hắc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">skTrmExESZq</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Xã Chiềng Hặc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Z5H8UmsuzHb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Xã Chiềng Khay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nXNWoMbh4ZQ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Xã Chiềng Kheo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bFx8ushsmjj</t>
+  </si>
+  <si>
+    <t xml:space="preserve">04036</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Xã Chiềng Khoa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">w9JMuHyAdLy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Xã Chiềng Khoang</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ktMGngLpI8X</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Xã Chiềng Khoi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LW3NlL16c7h</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Xã Chiềng Khoong</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D2Tx9PRc6tv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Xã Chiềng Khương</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tKUSPBZaciR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Xã Chiềng Khừa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WXU55Mv7hFS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Xã Chiềng La</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vV2tJDJ5HX7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Xã Chiềng Lao</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nkvCrRpQgpT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Xã Chiềng Ly</t>
+  </si>
+  <si>
+    <t xml:space="preserve">eIHwnUZz4tN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Xã Chiềng Lương</t>
+  </si>
+  <si>
+    <t xml:space="preserve">j3qveelwROk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">04132</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Xã Chiềng Mai</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r4xgAuR9DKM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Xã Chiềng Mung</t>
+  </si>
+  <si>
+    <t xml:space="preserve">j9wNYisxX84</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Xã Chiềng Muôn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">losPaQX4Lyf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Xã Chiềng Ngàm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LtJzbGLwBPz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">03673</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Xã Chiềng Ngần</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L9N16YBHghY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Xã Chiềng Nơi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L2wdH5Icu5a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Xã Chiềng On</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ClYV1zcxqYj</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Xã Chiềng Pha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">xiK6iycI1Yk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Xã Chiềng Phung</t>
+  </si>
+  <si>
+    <t xml:space="preserve">QZFbAQjVbWv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Xã Chiềng Pấc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">si3DXpJtVpu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Xã Chiềng Pằn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">na9IMR40tIg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Xã Chiềng San</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UH4epjDRprR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Xã Chiềng Sung</t>
+  </si>
+  <si>
+    <t xml:space="preserve">xdZLqRkdIEu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Xã Chiềng Sàng</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lU4w12jK2vB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Xã Chiềng Sơ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fTv8M1glj0J</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Xã Chiềng Sơn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yvccYtsOn3e</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Xã Chiềng Sại</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M934WBSJbz9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Xã Chiềng Tương</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bxGrbQGWg9G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Xã Chiềng Ve</t>
+  </si>
+  <si>
+    <t xml:space="preserve">qcxaDARY0HT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">04056</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Xã Chiềng Xuân</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jfoJR2WjiUQ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">03664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Xã Chiềng Xôm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A3Gr0APDV69</t>
+  </si>
+  <si>
+    <t xml:space="preserve">04054</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Xã Chiềng Yên</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VGwfoWk4mzY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Xã Chiềng Ân</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p1nmge8amqu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">03661</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Xã Chiềng Đen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R9q6vCMeWN5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Xã Chiềng Đông</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yBaM45Kwus7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Xã Chiềng Ơn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">j5IiEt4IhzC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">03781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Xã Co Mạ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LxTZrzLr8Uk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Xã Co Tòng</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yiWchRyy9vb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Xã Cà Nàng</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JAevHGwz4ZK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Xã Cò Nòi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ECF6zg5H7Hu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Xã Dồm Cang</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H6EiHCvnZeg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Xã Gia Phù</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S1ibRyfwk5q</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Xã Hang Chú</t>
+  </si>
+  <si>
+    <t xml:space="preserve">coqr5P1cetd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">03676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Xã Hua La</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H2ZfOt9n3wr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">03890</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Xã Hua Nhàn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uIOgP6B98bT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Xã Hua Păng</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wK2XCt8lkxB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Xã Hua Trai</t>
+  </si>
+  <si>
+    <t xml:space="preserve">oKDKnHIcYup</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Xã Huy Bắc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Z7n8y2msMZr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Xã Huy Hạ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OXln9RRbqLx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Xã Huy Thượng</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mPLErUCju3O</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Xã Huy Tân</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wjk85XZgOdZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Xã Huy Tường</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M5afIzbFIN4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Xã Huổi Một</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yF1LjwO27we</t>
+  </si>
+  <si>
+    <t xml:space="preserve">03869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Xã Háng Đồng</t>
+  </si>
+  <si>
+    <t xml:space="preserve">x3CJmK3ZYid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Xã Hát Lót</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IooL62wJ33y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Xã Hồng Ngài</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IJa3Nekledh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Xã Kim Bon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PGEJcMwMBla</t>
+  </si>
+  <si>
+    <t xml:space="preserve">04009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Xã Liên Hoà</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F5xuPgSNUXM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Xã Liệp Tè</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OEDBHXjRcka</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Xã Long Hẹ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D24kKx4Kpkv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Xã Làng Chếu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yGkeNMBjpra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">04051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Xã Lóng Luông</t>
+  </si>
+  <si>
+    <t xml:space="preserve">b4UFbtsGpgW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Xã Lóng Phiêng</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hwui8JSB4y7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Xã Lóng Sập</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I5NQDp2QS3D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Xã Muổi Nọi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L1oJOazlxFB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">04117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Xã Mương Chanh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">o0Q30EpYkdr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Xã Mường Bang</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uErjVSqcZqK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Xã Mường Bon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pxq2cBX4309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Xã Mường Bám</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rsTIW9FBr8b</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Xã Mường Bú</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wzHhw6XH7yn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Xã Mường Bằng</t>
+  </si>
+  <si>
+    <t xml:space="preserve">z5aZYx7Vrwi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Xã Mường Cai</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GZ9q15SdY6T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Xã Mường Chiên</t>
+  </si>
+  <si>
+    <t xml:space="preserve">YZh7SWy1iiJ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Xã Mường Chùm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vg3P36ztTei</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Xã Mường Cơi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VVZUCpomsbx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">03943</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Xã Mường Do</t>
+  </si>
+  <si>
+    <t xml:space="preserve">eUWU86sQrT4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Xã Mường Giàng</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rGr64ziYxEJ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">03694</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Xã Mường Giôn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">clxcmAaAbqR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Xã Mường Hung</t>
+  </si>
+  <si>
+    <t xml:space="preserve">il3OIA16120</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Xã Mường Khiêng</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BXcBRHCZTw0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Xã Mường Khoa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wOqviqHrPOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Xã Mường Lang</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cqhBgnUeyvQ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Xã Mường Lèo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ENh2YWH2RBo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Xã Mường Lạn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ym2eR95wAK3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Xã Mường Lầm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MUt2kqrO5o6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Xã Mường Lựm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dyTrqO5cNAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">04039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Xã Mường Men</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c5wLKEx0Gyc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Xã Mường Sai</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fklGpGEwPic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Xã Mường Sang</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AM17l37wOXC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Xã Mường Sại</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KrADrssRW8t</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Xã Mường Thải</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gLOUbYr2Ema</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Xã Mường Trai</t>
+  </si>
+  <si>
+    <t xml:space="preserve">s8wK94GvJOA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">04021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Xã Mường Tè</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FK0s2lEzjkK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Xã Mường Và</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wUov1CDX1Rb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Xã Mường é</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L5g24RcTVUM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Xã Nam Phong</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IxJKBnmlvDq</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Xã Ngọc Chiến</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ES5KYhZ6PDd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Xã Noong Lay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">u1vs3GzcYEO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Xã Nà Mường</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FQkcFCBTNDK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Xã Nà Nghịu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MRey3x7dgHB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">04136</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Xã Nà Pó</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jAjAFUjr1cP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Xã Nà Ơt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RkPDDAaGMAz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Xã Nậm Giôn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nqEUIB6rVuF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Xã Nậm Lạnh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MJJU1LmLILj</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Xã Nậm Lầu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p3SFghJ6F2Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Xã Nậm Mằn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">XrQ19T17qz3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Xã Nậm Păm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">zUiLHRJcd3K</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Xã Nậm Ty</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VYOQantMLYm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Xã Nậm ét</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ufbbnqLOPyv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Xã Phiêng Ban</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yfIIesZfLPv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Xã Phiêng Côn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NjoJXEY9T7k</t>
+  </si>
+  <si>
+    <t xml:space="preserve">04144</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Xã Phiêng Cằm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">YMtCGyhFa7W</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Xã Phiêng Khoài</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jZfvjLBb0TY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Xã Phiêng Luông</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dw66atK6aBe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Xã Phiêng Pằn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">XIbC7QxUEkf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Xã Phổng Lái</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PE6FonkJLku</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Xã Phổng Lăng</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EBp1T4MzliJ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Xã Phổng Lập</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N6lkqPAZacX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Xã Pi Toong</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UE6uffMah5a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Xã Pá Lông</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lfAlBRYOOJC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Xã Pá Ma Pha Khinh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rUP2oXJDHpk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">04174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Xã Pú Pẩu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HjZASw8szsK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Xã Púng Bánh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sgEhiU11j8P</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Xã Púng Tra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X22r158UdwT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Xã Pắc Ngà</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jzHdIBmeQ1T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Xã Quang Huy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">oKpvkYtwMdu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">04042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Xã Quang Minh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">l7imjMbKzin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Xã Qui Hướng</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nNp17RiNPLJ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Xã Sam Kha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aKFchuO4Rjr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">04006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Xã Song Khủa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aWC1Ix4gjd5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Xã Song Pe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OYwdEmpxYn6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Xã Suối Bau</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MrRAFLf4JV3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">03994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Xã Suối Bàng</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BZiH1yLBCFu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Xã Suối Tọ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ox0mjxpJ8FR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Xã Sập Vạt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SQg0UCL3RcL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Xã Sập Xa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UYw4iODjbho</t>
+  </si>
+  <si>
+    <t xml:space="preserve">04231</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Xã Sốp Cộp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tLRk0L4Zvnl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Xã Thôm Mòn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R4YlLKdiKmW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Xã Tà Hộc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hdHJra0Ppnr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Xã Tà Lai</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ju8CxaEpIcE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Xã Tà Xùa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">q8gG1CEUvef</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Xã Tân Hợp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">zbIAD65YLGx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Xã Tân Lang</t>
+  </si>
+  <si>
+    <t xml:space="preserve">YciSHYApMRb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Xã Tân Lập</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E0gkRfzakPs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Xã Tân Phong</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tuP5JnLNH5I</t>
+  </si>
+  <si>
+    <t xml:space="preserve">04058</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Xã Tân Xuân</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kO3wPDIQo6c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">04018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Xã Tô Múa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uhTkAS1ptP6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Xã Tông Cọ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">z01TkDkclcA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Xã Tông Lạnh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DtV8F6DwuR0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Xã Tú Nang</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BPvgeFyfLR9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Xã Tường Hạ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DlcUGRccLHb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Xã Tường Phong</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GV7bUwjSSDJ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Xã Tường Phù</t>
+  </si>
+  <si>
+    <t xml:space="preserve">poQ74PnjDCh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Xã Tường Thượng</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kZkmuJicpLg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Xã Tường Tiến</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KrizJM2GTzc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Xã Tạ Bú</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JdHeVLIEiW4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Xã Tạ Khoa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gfUhrRzNwCd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Xã Viêng Lán</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bkFB2ctPhT3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">04048</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Xã Vân Hồ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PJmLDpZF12M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">04057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Xã Xuân Nha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KuYCrsDAb2z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Xã Xím Vàng</t>
+  </si>
+  <si>
+    <t xml:space="preserve">f8mJ75uh9Oy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Xã Yên Hưng</t>
+  </si>
+  <si>
+    <t xml:space="preserve">txdPXXCRJNj</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Xã Yên Sơn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">w3DHa4D3aSV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Xã é Tòng</t>
+  </si>
+  <si>
+    <t xml:space="preserve">URerZHviJJg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Xã Đá Đỏ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vVX9AIQjcz2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Xã Đông Sang</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hLsgwiv8xS9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Xã Đứa Mòn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sOBEhFbR1Oi</t>
   </si>
 </sst>
 </file>
@@ -2131,6 +4217,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -2250,11 +4337,12 @@
   <dimension ref="A1:J168"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J2" activeCellId="0" sqref="J2"/>
+      <selection pane="topLeft" activeCell="I17" activeCellId="0" sqref="I17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.76953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.78515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="20.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="35.05"/>
   </cols>
   <sheetData>
@@ -2290,7 +4378,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
         <v>10</v>
       </c>
@@ -2315,8 +4403,11 @@
       <c r="H2" s="0" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J2" s="0" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="s">
         <v>10</v>
       </c>
@@ -2341,8 +4432,11 @@
       <c r="H3" s="0" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J3" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="4" t="s">
         <v>10</v>
       </c>
@@ -2367,8 +4461,11 @@
       <c r="H4" s="0" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J4" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="4" t="s">
         <v>10</v>
       </c>
@@ -2393,8 +4490,11 @@
       <c r="H5" s="0" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J5" s="0" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="4" t="s">
         <v>10</v>
       </c>
@@ -2419,8 +4519,11 @@
       <c r="H6" s="0" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J6" s="0" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="4" t="s">
         <v>10</v>
       </c>
@@ -2445,8 +4548,11 @@
       <c r="H7" s="0" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J7" s="0" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="4" t="s">
         <v>10</v>
       </c>
@@ -2471,8 +4577,11 @@
       <c r="H8" s="0" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J8" s="0" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="4" t="s">
         <v>10</v>
       </c>
@@ -2497,8 +4606,11 @@
       <c r="H9" s="0" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J9" s="0" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="4" t="s">
         <v>10</v>
       </c>
@@ -2523,8 +4635,11 @@
       <c r="H10" s="0" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J10" s="0" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="4" t="s">
         <v>10</v>
       </c>
@@ -2549,8 +4664,11 @@
       <c r="H11" s="0" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J11" s="0" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="4" t="s">
         <v>10</v>
       </c>
@@ -2575,8 +4693,11 @@
       <c r="H12" s="0" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J12" s="0" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="4" t="s">
         <v>10</v>
       </c>
@@ -2601,8 +4722,11 @@
       <c r="H13" s="0" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J13" s="0" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="4" t="s">
         <v>10</v>
       </c>
@@ -2627,8 +4751,11 @@
       <c r="H14" s="0" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J14" s="0" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="4" t="s">
         <v>10</v>
       </c>
@@ -2653,8 +4780,11 @@
       <c r="H15" s="0" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J15" s="0" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="4" t="s">
         <v>10</v>
       </c>
@@ -2679,8 +4809,11 @@
       <c r="H16" s="0" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J16" s="0" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="4" t="s">
         <v>10</v>
       </c>
@@ -2705,8 +4838,11 @@
       <c r="H17" s="0" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J17" s="0" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="4" t="s">
         <v>10</v>
       </c>
@@ -2731,8 +4867,11 @@
       <c r="H18" s="0" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J18" s="0" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="4" t="s">
         <v>10</v>
       </c>
@@ -2757,8 +4896,11 @@
       <c r="H19" s="0" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J19" s="0" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="4" t="s">
         <v>10</v>
       </c>
@@ -2783,8 +4925,11 @@
       <c r="H20" s="0" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J20" s="0" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="4" t="s">
         <v>10</v>
       </c>
@@ -2809,8 +4954,11 @@
       <c r="H21" s="0" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J21" s="0" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="4" t="s">
         <v>10</v>
       </c>
@@ -2835,8 +4983,11 @@
       <c r="H22" s="0" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J22" s="0" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="4" t="s">
         <v>10</v>
       </c>
@@ -2861,8 +5012,11 @@
       <c r="H23" s="0" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J23" s="0" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="4" t="s">
         <v>10</v>
       </c>
@@ -2887,8 +5041,11 @@
       <c r="H24" s="0" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J24" s="0" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="4" t="s">
         <v>10</v>
       </c>
@@ -2913,8 +5070,11 @@
       <c r="H25" s="0" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J25" s="0" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="4" t="s">
         <v>10</v>
       </c>
@@ -2939,8 +5099,11 @@
       <c r="H26" s="0" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J26" s="0" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="4" t="s">
         <v>10</v>
       </c>
@@ -2965,8 +5128,11 @@
       <c r="H27" s="0" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J27" s="0" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="4" t="s">
         <v>10</v>
       </c>
@@ -2991,8 +5157,11 @@
       <c r="H28" s="0" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J28" s="0" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="4" t="s">
         <v>10</v>
       </c>
@@ -3017,8 +5186,11 @@
       <c r="H29" s="0" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J29" s="0" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="4" t="s">
         <v>10</v>
       </c>
@@ -3043,8 +5215,11 @@
       <c r="H30" s="0" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J30" s="0" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="4" t="s">
         <v>10</v>
       </c>
@@ -3069,8 +5244,11 @@
       <c r="H31" s="0" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J31" s="0" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="4" t="s">
         <v>10</v>
       </c>
@@ -3095,8 +5273,11 @@
       <c r="H32" s="0" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J32" s="0" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="4" t="s">
         <v>10</v>
       </c>
@@ -3121,8 +5302,11 @@
       <c r="H33" s="0" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J33" s="0" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="4" t="s">
         <v>10</v>
       </c>
@@ -3147,8 +5331,11 @@
       <c r="H34" s="0" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J34" s="0" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="4" t="s">
         <v>10</v>
       </c>
@@ -3173,8 +5360,11 @@
       <c r="H35" s="0" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J35" s="0" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="4" t="s">
         <v>10</v>
       </c>
@@ -3199,8 +5389,11 @@
       <c r="H36" s="0" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J36" s="0" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="4" t="s">
         <v>10</v>
       </c>
@@ -3225,8 +5418,11 @@
       <c r="H37" s="0" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J37" s="0" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="4" t="s">
         <v>10</v>
       </c>
@@ -3251,8 +5447,11 @@
       <c r="H38" s="0" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J38" s="0" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="4" t="s">
         <v>10</v>
       </c>
@@ -3277,8 +5476,11 @@
       <c r="H39" s="0" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J39" s="0" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="4" t="s">
         <v>10</v>
       </c>
@@ -3303,8 +5505,11 @@
       <c r="H40" s="0" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J40" s="0" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="4" t="s">
         <v>10</v>
       </c>
@@ -3329,8 +5534,11 @@
       <c r="H41" s="0" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J41" s="0" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="4" t="s">
         <v>10</v>
       </c>
@@ -3355,8 +5563,11 @@
       <c r="H42" s="0" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J42" s="0" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="4" t="s">
         <v>10</v>
       </c>
@@ -3381,8 +5592,11 @@
       <c r="H43" s="0" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J43" s="0" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="4" t="s">
         <v>10</v>
       </c>
@@ -3407,8 +5621,11 @@
       <c r="H44" s="0" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J44" s="0" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="4" t="s">
         <v>10</v>
       </c>
@@ -3433,8 +5650,11 @@
       <c r="H45" s="0" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J45" s="0" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="4" t="s">
         <v>10</v>
       </c>
@@ -3459,8 +5679,11 @@
       <c r="H46" s="0" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J46" s="0" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="4" t="s">
         <v>10</v>
       </c>
@@ -3485,8 +5708,11 @@
       <c r="H47" s="0" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J47" s="0" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="4" t="s">
         <v>10</v>
       </c>
@@ -3511,8 +5737,11 @@
       <c r="H48" s="0" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J48" s="0" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="4" t="s">
         <v>10</v>
       </c>
@@ -3537,8 +5766,11 @@
       <c r="H49" s="0" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J49" s="0" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="4" t="s">
         <v>10</v>
       </c>
@@ -3563,8 +5795,11 @@
       <c r="H50" s="0" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J50" s="0" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="4" t="s">
         <v>10</v>
       </c>
@@ -3589,8 +5824,11 @@
       <c r="H51" s="0" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J51" s="0" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="4" t="s">
         <v>10</v>
       </c>
@@ -3615,8 +5853,11 @@
       <c r="H52" s="0" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J52" s="0" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="4" t="s">
         <v>10</v>
       </c>
@@ -3641,8 +5882,11 @@
       <c r="H53" s="0" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J53" s="0" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="4" t="s">
         <v>10</v>
       </c>
@@ -3667,8 +5911,11 @@
       <c r="H54" s="0" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J54" s="0" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="4" t="s">
         <v>10</v>
       </c>
@@ -3693,8 +5940,11 @@
       <c r="H55" s="0" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J55" s="0" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="4" t="s">
         <v>10</v>
       </c>
@@ -3719,8 +5969,11 @@
       <c r="H56" s="0" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J56" s="0" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="4" t="s">
         <v>10</v>
       </c>
@@ -3745,8 +5998,11 @@
       <c r="H57" s="0" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J57" s="0" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="4" t="s">
         <v>10</v>
       </c>
@@ -3771,8 +6027,11 @@
       <c r="H58" s="0" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J58" s="0" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="4" t="s">
         <v>10</v>
       </c>
@@ -3797,8 +6056,11 @@
       <c r="H59" s="0" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J59" s="0" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="4" t="s">
         <v>10</v>
       </c>
@@ -3823,8 +6085,11 @@
       <c r="H60" s="0" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J60" s="0" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="4" t="s">
         <v>10</v>
       </c>
@@ -3849,8 +6114,11 @@
       <c r="H61" s="0" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J61" s="0" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="4" t="s">
         <v>10</v>
       </c>
@@ -3875,8 +6143,11 @@
       <c r="H62" s="0" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J62" s="0" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="4" t="s">
         <v>10</v>
       </c>
@@ -3901,8 +6172,11 @@
       <c r="H63" s="0" t="s">
         <v>277</v>
       </c>
-    </row>
-    <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J63" s="0" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="4" t="s">
         <v>10</v>
       </c>
@@ -3927,8 +6201,11 @@
       <c r="H64" s="0" t="s">
         <v>283</v>
       </c>
-    </row>
-    <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J64" s="0" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="4" t="s">
         <v>10</v>
       </c>
@@ -3953,8 +6230,11 @@
       <c r="H65" s="0" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J65" s="0" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="4" t="s">
         <v>10</v>
       </c>
@@ -3979,8 +6259,11 @@
       <c r="H66" s="0" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J66" s="0" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="4" t="s">
         <v>10</v>
       </c>
@@ -4005,6 +6288,9 @@
       <c r="H67" s="0" t="s">
         <v>295</v>
       </c>
+      <c r="J67" s="0" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="4" t="s">
@@ -4032,7 +6318,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="4" t="s">
         <v>10</v>
       </c>
@@ -4057,8 +6343,11 @@
       <c r="H69" s="0" t="s">
         <v>303</v>
       </c>
-    </row>
-    <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J69" s="0" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="4" t="s">
         <v>10</v>
       </c>
@@ -4083,8 +6372,11 @@
       <c r="H70" s="0" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J70" s="0" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="4" t="s">
         <v>10</v>
       </c>
@@ -4109,8 +6401,11 @@
       <c r="H71" s="0" t="s">
         <v>311</v>
       </c>
-    </row>
-    <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J71" s="0" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="4" t="s">
         <v>10</v>
       </c>
@@ -4135,8 +6430,11 @@
       <c r="H72" s="0" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J72" s="0" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="4" t="s">
         <v>10</v>
       </c>
@@ -4161,8 +6459,11 @@
       <c r="H73" s="0" t="s">
         <v>319</v>
       </c>
-    </row>
-    <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J73" s="0" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="4" t="s">
         <v>10</v>
       </c>
@@ -4187,8 +6488,11 @@
       <c r="H74" s="0" t="s">
         <v>323</v>
       </c>
-    </row>
-    <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J74" s="0" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="4" t="s">
         <v>10</v>
       </c>
@@ -4213,8 +6517,11 @@
       <c r="H75" s="0" t="s">
         <v>327</v>
       </c>
-    </row>
-    <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J75" s="0" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="4" t="s">
         <v>10</v>
       </c>
@@ -4239,8 +6546,11 @@
       <c r="H76" s="0" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J76" s="0" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="4" t="s">
         <v>10</v>
       </c>
@@ -4265,8 +6575,11 @@
       <c r="H77" s="0" t="s">
         <v>335</v>
       </c>
-    </row>
-    <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J77" s="0" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="4" t="s">
         <v>10</v>
       </c>
@@ -4291,8 +6604,11 @@
       <c r="H78" s="0" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J78" s="0" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="4" t="s">
         <v>10</v>
       </c>
@@ -4317,8 +6633,11 @@
       <c r="H79" s="0" t="s">
         <v>343</v>
       </c>
-    </row>
-    <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J79" s="0" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="4" t="s">
         <v>10</v>
       </c>
@@ -4343,8 +6662,11 @@
       <c r="H80" s="0" t="s">
         <v>347</v>
       </c>
-    </row>
-    <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J80" s="0" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="4" t="s">
         <v>10</v>
       </c>
@@ -4369,6 +6691,9 @@
       <c r="H81" s="0" t="s">
         <v>351</v>
       </c>
+      <c r="J81" s="0" t="s">
+        <v>348</v>
+      </c>
     </row>
     <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="4" t="s">
@@ -4396,7 +6721,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="4" t="s">
         <v>10</v>
       </c>
@@ -4421,8 +6746,11 @@
       <c r="H83" s="0" t="s">
         <v>357</v>
       </c>
-    </row>
-    <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J83" s="0" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="4" t="s">
         <v>10</v>
       </c>
@@ -4447,8 +6775,11 @@
       <c r="H84" s="0" t="s">
         <v>361</v>
       </c>
-    </row>
-    <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J84" s="0" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="4" t="s">
         <v>10</v>
       </c>
@@ -4473,8 +6804,11 @@
       <c r="H85" s="0" t="s">
         <v>365</v>
       </c>
-    </row>
-    <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J85" s="0" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="4" t="s">
         <v>10</v>
       </c>
@@ -4499,8 +6833,11 @@
       <c r="H86" s="0" t="s">
         <v>369</v>
       </c>
-    </row>
-    <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J86" s="0" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="4" t="s">
         <v>10</v>
       </c>
@@ -4525,8 +6862,11 @@
       <c r="H87" s="0" t="s">
         <v>373</v>
       </c>
-    </row>
-    <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J87" s="0" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="4" t="s">
         <v>10</v>
       </c>
@@ -4551,8 +6891,11 @@
       <c r="H88" s="0" t="s">
         <v>377</v>
       </c>
-    </row>
-    <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J88" s="0" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="4" t="s">
         <v>10</v>
       </c>
@@ -4577,8 +6920,11 @@
       <c r="H89" s="0" t="s">
         <v>381</v>
       </c>
-    </row>
-    <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J89" s="0" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="4" t="s">
         <v>10</v>
       </c>
@@ -4603,8 +6949,11 @@
       <c r="H90" s="0" t="s">
         <v>385</v>
       </c>
-    </row>
-    <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J90" s="0" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="4" t="s">
         <v>10</v>
       </c>
@@ -4629,8 +6978,11 @@
       <c r="H91" s="0" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J91" s="0" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="4" t="s">
         <v>10</v>
       </c>
@@ -4655,8 +7007,11 @@
       <c r="H92" s="0" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J92" s="0" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="4" t="s">
         <v>10</v>
       </c>
@@ -4681,8 +7036,11 @@
       <c r="H93" s="0" t="s">
         <v>397</v>
       </c>
-    </row>
-    <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J93" s="0" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="4" t="s">
         <v>10</v>
       </c>
@@ -4707,8 +7065,11 @@
       <c r="H94" s="0" t="s">
         <v>401</v>
       </c>
-    </row>
-    <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J94" s="0" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="4" t="s">
         <v>10</v>
       </c>
@@ -4733,8 +7094,11 @@
       <c r="H95" s="0" t="s">
         <v>405</v>
       </c>
-    </row>
-    <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J95" s="0" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="4" t="s">
         <v>10</v>
       </c>
@@ -4759,8 +7123,11 @@
       <c r="H96" s="0" t="s">
         <v>409</v>
       </c>
-    </row>
-    <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J96" s="0" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="4" t="s">
         <v>10</v>
       </c>
@@ -4785,8 +7152,11 @@
       <c r="H97" s="0" t="s">
         <v>413</v>
       </c>
-    </row>
-    <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J97" s="0" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="4" t="s">
         <v>10</v>
       </c>
@@ -4811,8 +7181,11 @@
       <c r="H98" s="0" t="s">
         <v>417</v>
       </c>
-    </row>
-    <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J98" s="0" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="4" t="s">
         <v>10</v>
       </c>
@@ -4837,8 +7210,11 @@
       <c r="H99" s="0" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J99" s="0" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="4" t="s">
         <v>10</v>
       </c>
@@ -4863,8 +7239,11 @@
       <c r="H100" s="0" t="s">
         <v>425</v>
       </c>
-    </row>
-    <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J100" s="0" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="4" t="s">
         <v>10</v>
       </c>
@@ -4889,6 +7268,9 @@
       <c r="H101" s="0" t="s">
         <v>429</v>
       </c>
+      <c r="J101" s="0" t="s">
+        <v>426</v>
+      </c>
     </row>
     <row r="102" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="4" t="s">
@@ -4916,7 +7298,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="103" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="4" t="s">
         <v>10</v>
       </c>
@@ -4941,8 +7323,11 @@
       <c r="H103" s="0" t="s">
         <v>437</v>
       </c>
-    </row>
-    <row r="104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J103" s="0" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="4" t="s">
         <v>10</v>
       </c>
@@ -4967,8 +7352,11 @@
       <c r="H104" s="0" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="105" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J104" s="0" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="4" t="s">
         <v>10</v>
       </c>
@@ -4993,8 +7381,11 @@
       <c r="H105" s="0" t="s">
         <v>445</v>
       </c>
-    </row>
-    <row r="106" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J105" s="0" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="4" t="s">
         <v>10</v>
       </c>
@@ -5019,8 +7410,11 @@
       <c r="H106" s="0" t="s">
         <v>449</v>
       </c>
-    </row>
-    <row r="107" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J106" s="0" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="4" t="s">
         <v>10</v>
       </c>
@@ -5045,8 +7439,11 @@
       <c r="H107" s="0" t="s">
         <v>453</v>
       </c>
-    </row>
-    <row r="108" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J107" s="0" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="4" t="s">
         <v>10</v>
       </c>
@@ -5071,8 +7468,11 @@
       <c r="H108" s="0" t="s">
         <v>457</v>
       </c>
-    </row>
-    <row r="109" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J108" s="0" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="4" t="s">
         <v>10</v>
       </c>
@@ -5097,8 +7497,11 @@
       <c r="H109" s="0" t="s">
         <v>461</v>
       </c>
-    </row>
-    <row r="110" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J109" s="0" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="4" t="s">
         <v>10</v>
       </c>
@@ -5123,8 +7526,11 @@
       <c r="H110" s="0" t="s">
         <v>465</v>
       </c>
-    </row>
-    <row r="111" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J110" s="0" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="4" t="s">
         <v>10</v>
       </c>
@@ -5149,8 +7555,11 @@
       <c r="H111" s="0" t="s">
         <v>469</v>
       </c>
-    </row>
-    <row r="112" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J111" s="0" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="4" t="s">
         <v>10</v>
       </c>
@@ -5175,8 +7584,11 @@
       <c r="H112" s="0" t="s">
         <v>473</v>
       </c>
-    </row>
-    <row r="113" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J112" s="0" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="4" t="s">
         <v>10</v>
       </c>
@@ -5201,8 +7613,11 @@
       <c r="H113" s="0" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="114" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J113" s="0" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="4" t="s">
         <v>10</v>
       </c>
@@ -5227,8 +7642,11 @@
       <c r="H114" s="0" t="s">
         <v>481</v>
       </c>
-    </row>
-    <row r="115" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J114" s="0" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="4" t="s">
         <v>10</v>
       </c>
@@ -5253,8 +7671,11 @@
       <c r="H115" s="0" t="s">
         <v>485</v>
       </c>
-    </row>
-    <row r="116" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J115" s="0" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="4" t="s">
         <v>10</v>
       </c>
@@ -5279,8 +7700,11 @@
       <c r="H116" s="0" t="s">
         <v>489</v>
       </c>
-    </row>
-    <row r="117" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J116" s="0" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="4" t="s">
         <v>10</v>
       </c>
@@ -5305,8 +7729,11 @@
       <c r="H117" s="0" t="s">
         <v>493</v>
       </c>
-    </row>
-    <row r="118" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J117" s="0" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="4" t="s">
         <v>10</v>
       </c>
@@ -5331,8 +7758,11 @@
       <c r="H118" s="0" t="s">
         <v>497</v>
       </c>
-    </row>
-    <row r="119" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J118" s="0" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="4" t="s">
         <v>10</v>
       </c>
@@ -5357,8 +7787,11 @@
       <c r="H119" s="0" t="s">
         <v>501</v>
       </c>
-    </row>
-    <row r="120" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J119" s="0" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="4" t="s">
         <v>10</v>
       </c>
@@ -5383,8 +7816,11 @@
       <c r="H120" s="0" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="121" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J120" s="0" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="4" t="s">
         <v>10</v>
       </c>
@@ -5409,8 +7845,11 @@
       <c r="H121" s="0" t="s">
         <v>509</v>
       </c>
-    </row>
-    <row r="122" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J121" s="0" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="4" t="s">
         <v>10</v>
       </c>
@@ -5435,8 +7874,11 @@
       <c r="H122" s="0" t="s">
         <v>513</v>
       </c>
-    </row>
-    <row r="123" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J122" s="0" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="4" t="s">
         <v>10</v>
       </c>
@@ -5461,8 +7903,11 @@
       <c r="H123" s="0" t="s">
         <v>517</v>
       </c>
-    </row>
-    <row r="124" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J123" s="0" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="4" t="s">
         <v>10</v>
       </c>
@@ -5487,8 +7932,11 @@
       <c r="H124" s="0" t="s">
         <v>521</v>
       </c>
-    </row>
-    <row r="125" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J124" s="0" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="4" t="s">
         <v>10</v>
       </c>
@@ -5513,8 +7961,11 @@
       <c r="H125" s="0" t="s">
         <v>525</v>
       </c>
-    </row>
-    <row r="126" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J125" s="0" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="4" t="s">
         <v>10</v>
       </c>
@@ -5539,8 +7990,11 @@
       <c r="H126" s="0" t="s">
         <v>529</v>
       </c>
-    </row>
-    <row r="127" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J126" s="0" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="4" t="s">
         <v>10</v>
       </c>
@@ -5565,8 +8019,11 @@
       <c r="H127" s="0" t="s">
         <v>533</v>
       </c>
-    </row>
-    <row r="128" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J127" s="0" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="4" t="s">
         <v>10</v>
       </c>
@@ -5580,19 +8037,22 @@
         <v>13</v>
       </c>
       <c r="E128" s="4" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="F128" s="0" t="s">
+        <v>536</v>
+      </c>
+      <c r="G128" s="4" t="s">
+        <v>537</v>
+      </c>
+      <c r="H128" s="0" t="s">
+        <v>538</v>
+      </c>
+      <c r="J128" s="0" t="s">
         <v>535</v>
       </c>
-      <c r="G128" s="4" t="s">
-        <v>536</v>
-      </c>
-      <c r="H128" s="0" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="129" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="4" t="s">
         <v>10</v>
       </c>
@@ -5606,16 +8066,19 @@
         <v>13</v>
       </c>
       <c r="E129" s="4" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="F129" s="0" t="s">
+        <v>540</v>
+      </c>
+      <c r="G129" s="4" t="s">
+        <v>541</v>
+      </c>
+      <c r="H129" s="0" t="s">
+        <v>542</v>
+      </c>
+      <c r="J129" s="0" t="s">
         <v>539</v>
-      </c>
-      <c r="G129" s="4" t="s">
-        <v>540</v>
-      </c>
-      <c r="H129" s="0" t="s">
-        <v>541</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5632,19 +8095,19 @@
         <v>55</v>
       </c>
       <c r="E130" s="4" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="F130" s="0" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="G130" s="4" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="H130" s="0" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="131" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="4" t="s">
         <v>10</v>
       </c>
@@ -5658,19 +8121,22 @@
         <v>31</v>
       </c>
       <c r="E131" s="4" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="F131" s="0" t="s">
+        <v>548</v>
+      </c>
+      <c r="G131" s="4" t="s">
+        <v>549</v>
+      </c>
+      <c r="H131" s="0" t="s">
+        <v>550</v>
+      </c>
+      <c r="J131" s="0" t="s">
         <v>547</v>
       </c>
-      <c r="G131" s="4" t="s">
-        <v>548</v>
-      </c>
-      <c r="H131" s="0" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="132" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="4" t="s">
         <v>10</v>
       </c>
@@ -5684,19 +8150,22 @@
         <v>19</v>
       </c>
       <c r="E132" s="4" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="F132" s="0" t="s">
+        <v>552</v>
+      </c>
+      <c r="G132" s="4" t="s">
+        <v>553</v>
+      </c>
+      <c r="H132" s="0" t="s">
+        <v>554</v>
+      </c>
+      <c r="J132" s="0" t="s">
         <v>551</v>
       </c>
-      <c r="G132" s="4" t="s">
-        <v>552</v>
-      </c>
-      <c r="H132" s="0" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="133" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="4" t="s">
         <v>10</v>
       </c>
@@ -5710,19 +8179,22 @@
         <v>49</v>
       </c>
       <c r="E133" s="4" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="F133" s="0" t="s">
+        <v>556</v>
+      </c>
+      <c r="G133" s="4" t="s">
+        <v>557</v>
+      </c>
+      <c r="H133" s="0" t="s">
+        <v>558</v>
+      </c>
+      <c r="J133" s="0" t="s">
         <v>555</v>
       </c>
-      <c r="G133" s="4" t="s">
-        <v>556</v>
-      </c>
-      <c r="H133" s="0" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="134" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="4" t="s">
         <v>10</v>
       </c>
@@ -5736,19 +8208,22 @@
         <v>49</v>
       </c>
       <c r="E134" s="4" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="F134" s="0" t="s">
+        <v>560</v>
+      </c>
+      <c r="G134" s="4" t="s">
+        <v>561</v>
+      </c>
+      <c r="H134" s="0" t="s">
+        <v>562</v>
+      </c>
+      <c r="J134" s="0" t="s">
         <v>559</v>
       </c>
-      <c r="G134" s="4" t="s">
-        <v>560</v>
-      </c>
-      <c r="H134" s="0" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="135" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="4" t="s">
         <v>10</v>
       </c>
@@ -5762,19 +8237,22 @@
         <v>49</v>
       </c>
       <c r="E135" s="4" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="F135" s="0" t="s">
+        <v>564</v>
+      </c>
+      <c r="G135" s="4" t="s">
+        <v>565</v>
+      </c>
+      <c r="H135" s="0" t="s">
+        <v>566</v>
+      </c>
+      <c r="J135" s="0" t="s">
         <v>563</v>
       </c>
-      <c r="G135" s="4" t="s">
-        <v>564</v>
-      </c>
-      <c r="H135" s="0" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="136" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="4" t="s">
         <v>10</v>
       </c>
@@ -5788,19 +8266,22 @@
         <v>25</v>
       </c>
       <c r="E136" s="4" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="F136" s="0" t="s">
+        <v>568</v>
+      </c>
+      <c r="G136" s="4" t="s">
+        <v>569</v>
+      </c>
+      <c r="H136" s="0" t="s">
+        <v>570</v>
+      </c>
+      <c r="J136" s="0" t="s">
         <v>567</v>
       </c>
-      <c r="G136" s="4" t="s">
-        <v>568</v>
-      </c>
-      <c r="H136" s="0" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="137" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="4" t="s">
         <v>10</v>
       </c>
@@ -5814,19 +8295,22 @@
         <v>279</v>
       </c>
       <c r="E137" s="4" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="F137" s="0" t="s">
+        <v>572</v>
+      </c>
+      <c r="G137" s="4" t="s">
+        <v>573</v>
+      </c>
+      <c r="H137" s="0" t="s">
+        <v>574</v>
+      </c>
+      <c r="J137" s="0" t="s">
         <v>571</v>
       </c>
-      <c r="G137" s="4" t="s">
-        <v>572</v>
-      </c>
-      <c r="H137" s="0" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="138" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="4" t="s">
         <v>10</v>
       </c>
@@ -5840,19 +8324,22 @@
         <v>49</v>
       </c>
       <c r="E138" s="4" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="F138" s="0" t="s">
+        <v>576</v>
+      </c>
+      <c r="G138" s="4" t="s">
+        <v>577</v>
+      </c>
+      <c r="H138" s="0" t="s">
+        <v>578</v>
+      </c>
+      <c r="J138" s="0" t="s">
         <v>575</v>
       </c>
-      <c r="G138" s="4" t="s">
-        <v>576</v>
-      </c>
-      <c r="H138" s="0" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="139" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="4" t="s">
         <v>10</v>
       </c>
@@ -5866,19 +8353,22 @@
         <v>37</v>
       </c>
       <c r="E139" s="4" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="F139" s="0" t="s">
+        <v>580</v>
+      </c>
+      <c r="G139" s="4" t="s">
+        <v>581</v>
+      </c>
+      <c r="H139" s="0" t="s">
+        <v>582</v>
+      </c>
+      <c r="J139" s="0" t="s">
         <v>579</v>
       </c>
-      <c r="G139" s="4" t="s">
-        <v>580</v>
-      </c>
-      <c r="H139" s="0" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="140" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="4" t="s">
         <v>10</v>
       </c>
@@ -5892,19 +8382,22 @@
         <v>31</v>
       </c>
       <c r="E140" s="4" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="F140" s="0" t="s">
+        <v>584</v>
+      </c>
+      <c r="G140" s="4" t="s">
+        <v>585</v>
+      </c>
+      <c r="H140" s="0" t="s">
+        <v>586</v>
+      </c>
+      <c r="J140" s="0" t="s">
         <v>583</v>
       </c>
-      <c r="G140" s="4" t="s">
-        <v>584</v>
-      </c>
-      <c r="H140" s="0" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="141" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="4" t="s">
         <v>10</v>
       </c>
@@ -5918,19 +8411,22 @@
         <v>279</v>
       </c>
       <c r="E141" s="4" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="F141" s="0" t="s">
+        <v>588</v>
+      </c>
+      <c r="G141" s="4" t="s">
+        <v>589</v>
+      </c>
+      <c r="H141" s="0" t="s">
+        <v>590</v>
+      </c>
+      <c r="J141" s="0" t="s">
         <v>587</v>
       </c>
-      <c r="G141" s="4" t="s">
-        <v>588</v>
-      </c>
-      <c r="H141" s="0" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="142" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="4" t="s">
         <v>10</v>
       </c>
@@ -5944,19 +8440,22 @@
         <v>55</v>
       </c>
       <c r="E142" s="4" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="F142" s="0" t="s">
+        <v>592</v>
+      </c>
+      <c r="G142" s="4" t="s">
+        <v>593</v>
+      </c>
+      <c r="H142" s="0" t="s">
+        <v>594</v>
+      </c>
+      <c r="J142" s="0" t="s">
         <v>591</v>
       </c>
-      <c r="G142" s="4" t="s">
-        <v>592</v>
-      </c>
-      <c r="H142" s="0" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="143" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="4" t="s">
         <v>10</v>
       </c>
@@ -5970,19 +8469,22 @@
         <v>37</v>
       </c>
       <c r="E143" s="4" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="F143" s="0" t="s">
+        <v>596</v>
+      </c>
+      <c r="G143" s="4" t="s">
+        <v>597</v>
+      </c>
+      <c r="H143" s="0" t="s">
+        <v>598</v>
+      </c>
+      <c r="J143" s="0" t="s">
         <v>595</v>
       </c>
-      <c r="G143" s="4" t="s">
-        <v>596</v>
-      </c>
-      <c r="H143" s="0" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="144" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="4" t="s">
         <v>10</v>
       </c>
@@ -5996,19 +8498,22 @@
         <v>13</v>
       </c>
       <c r="E144" s="4" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="F144" s="0" t="s">
+        <v>600</v>
+      </c>
+      <c r="G144" s="4" t="s">
+        <v>601</v>
+      </c>
+      <c r="H144" s="0" t="s">
+        <v>602</v>
+      </c>
+      <c r="J144" s="0" t="s">
         <v>599</v>
       </c>
-      <c r="G144" s="4" t="s">
-        <v>600</v>
-      </c>
-      <c r="H144" s="0" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="145" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="4" t="s">
         <v>10</v>
       </c>
@@ -6022,19 +8527,22 @@
         <v>37</v>
       </c>
       <c r="E145" s="4" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="F145" s="0" t="s">
+        <v>604</v>
+      </c>
+      <c r="G145" s="4" t="s">
+        <v>605</v>
+      </c>
+      <c r="H145" s="0" t="s">
+        <v>606</v>
+      </c>
+      <c r="J145" s="0" t="s">
         <v>603</v>
       </c>
-      <c r="G145" s="4" t="s">
-        <v>604</v>
-      </c>
-      <c r="H145" s="0" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="146" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="4" t="s">
         <v>10</v>
       </c>
@@ -6048,19 +8556,22 @@
         <v>37</v>
       </c>
       <c r="E146" s="4" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="F146" s="0" t="s">
+        <v>608</v>
+      </c>
+      <c r="G146" s="4" t="s">
+        <v>609</v>
+      </c>
+      <c r="H146" s="0" t="s">
+        <v>610</v>
+      </c>
+      <c r="J146" s="0" t="s">
         <v>607</v>
       </c>
-      <c r="G146" s="4" t="s">
-        <v>608</v>
-      </c>
-      <c r="H146" s="0" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="147" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="4" t="s">
         <v>10</v>
       </c>
@@ -6074,19 +8585,22 @@
         <v>25</v>
       </c>
       <c r="E147" s="4" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="F147" s="0" t="s">
+        <v>612</v>
+      </c>
+      <c r="G147" s="4" t="s">
+        <v>613</v>
+      </c>
+      <c r="H147" s="0" t="s">
+        <v>614</v>
+      </c>
+      <c r="J147" s="0" t="s">
         <v>611</v>
       </c>
-      <c r="G147" s="4" t="s">
-        <v>612</v>
-      </c>
-      <c r="H147" s="0" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="148" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="4" t="s">
         <v>10</v>
       </c>
@@ -6100,19 +8614,22 @@
         <v>19</v>
       </c>
       <c r="E148" s="4" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="F148" s="0" t="s">
+        <v>616</v>
+      </c>
+      <c r="G148" s="4" t="s">
+        <v>617</v>
+      </c>
+      <c r="H148" s="0" t="s">
+        <v>618</v>
+      </c>
+      <c r="J148" s="0" t="s">
         <v>615</v>
       </c>
-      <c r="G148" s="4" t="s">
-        <v>616</v>
-      </c>
-      <c r="H148" s="0" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="149" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="4" t="s">
         <v>10</v>
       </c>
@@ -6126,19 +8643,22 @@
         <v>13</v>
       </c>
       <c r="E149" s="4" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="F149" s="0" t="s">
+        <v>620</v>
+      </c>
+      <c r="G149" s="4" t="s">
+        <v>621</v>
+      </c>
+      <c r="H149" s="0" t="s">
+        <v>622</v>
+      </c>
+      <c r="J149" s="0" t="s">
         <v>619</v>
       </c>
-      <c r="G149" s="4" t="s">
-        <v>620</v>
-      </c>
-      <c r="H149" s="0" t="s">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="150" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="4" t="s">
         <v>10</v>
       </c>
@@ -6152,19 +8672,22 @@
         <v>31</v>
       </c>
       <c r="E150" s="4" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="F150" s="0" t="s">
+        <v>624</v>
+      </c>
+      <c r="G150" s="4" t="s">
+        <v>625</v>
+      </c>
+      <c r="H150" s="0" t="s">
+        <v>626</v>
+      </c>
+      <c r="J150" s="0" t="s">
         <v>623</v>
       </c>
-      <c r="G150" s="4" t="s">
-        <v>624</v>
-      </c>
-      <c r="H150" s="0" t="s">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="151" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="4" t="s">
         <v>10</v>
       </c>
@@ -6178,19 +8701,22 @@
         <v>13</v>
       </c>
       <c r="E151" s="4" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="F151" s="0" t="s">
+        <v>628</v>
+      </c>
+      <c r="G151" s="4" t="s">
+        <v>629</v>
+      </c>
+      <c r="H151" s="0" t="s">
+        <v>630</v>
+      </c>
+      <c r="J151" s="0" t="s">
         <v>627</v>
       </c>
-      <c r="G151" s="4" t="s">
-        <v>628</v>
-      </c>
-      <c r="H151" s="0" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="152" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="4" t="s">
         <v>10</v>
       </c>
@@ -6204,16 +8730,19 @@
         <v>31</v>
       </c>
       <c r="E152" s="4" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="F152" s="0" t="s">
+        <v>632</v>
+      </c>
+      <c r="G152" s="4" t="s">
+        <v>633</v>
+      </c>
+      <c r="H152" s="0" t="s">
+        <v>634</v>
+      </c>
+      <c r="J152" s="0" t="s">
         <v>631</v>
-      </c>
-      <c r="G152" s="4" t="s">
-        <v>632</v>
-      </c>
-      <c r="H152" s="0" t="s">
-        <v>633</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6230,19 +8759,19 @@
         <v>37</v>
       </c>
       <c r="E153" s="4" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="F153" s="0" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="G153" s="4" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="H153" s="0" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="154" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="4" t="s">
         <v>10</v>
       </c>
@@ -6256,19 +8785,22 @@
         <v>31</v>
       </c>
       <c r="E154" s="4" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="F154" s="0" t="s">
+        <v>640</v>
+      </c>
+      <c r="G154" s="4" t="s">
+        <v>641</v>
+      </c>
+      <c r="H154" s="0" t="s">
+        <v>642</v>
+      </c>
+      <c r="J154" s="0" t="s">
         <v>639</v>
       </c>
-      <c r="G154" s="4" t="s">
-        <v>640</v>
-      </c>
-      <c r="H154" s="0" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="155" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="4" t="s">
         <v>10</v>
       </c>
@@ -6282,19 +8814,22 @@
         <v>37</v>
       </c>
       <c r="E155" s="4" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="F155" s="0" t="s">
+        <v>644</v>
+      </c>
+      <c r="G155" s="4" t="s">
+        <v>645</v>
+      </c>
+      <c r="H155" s="0" t="s">
+        <v>646</v>
+      </c>
+      <c r="J155" s="0" t="s">
         <v>643</v>
       </c>
-      <c r="G155" s="4" t="s">
-        <v>644</v>
-      </c>
-      <c r="H155" s="0" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="156" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="4" t="s">
         <v>10</v>
       </c>
@@ -6308,19 +8843,22 @@
         <v>49</v>
       </c>
       <c r="E156" s="4" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="F156" s="0" t="s">
+        <v>648</v>
+      </c>
+      <c r="G156" s="4" t="s">
+        <v>649</v>
+      </c>
+      <c r="H156" s="0" t="s">
+        <v>650</v>
+      </c>
+      <c r="J156" s="0" t="s">
         <v>647</v>
       </c>
-      <c r="G156" s="4" t="s">
-        <v>648</v>
-      </c>
-      <c r="H156" s="0" t="s">
-        <v>649</v>
-      </c>
-    </row>
-    <row r="157" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="4" t="s">
         <v>10</v>
       </c>
@@ -6334,19 +8872,22 @@
         <v>49</v>
       </c>
       <c r="E157" s="4" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="F157" s="0" t="s">
+        <v>652</v>
+      </c>
+      <c r="G157" s="4" t="s">
+        <v>653</v>
+      </c>
+      <c r="H157" s="0" t="s">
+        <v>654</v>
+      </c>
+      <c r="J157" s="0" t="s">
         <v>651</v>
       </c>
-      <c r="G157" s="4" t="s">
-        <v>652</v>
-      </c>
-      <c r="H157" s="0" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="158" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="4" t="s">
         <v>10</v>
       </c>
@@ -6360,19 +8901,22 @@
         <v>49</v>
       </c>
       <c r="E158" s="4" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="F158" s="0" t="s">
+        <v>656</v>
+      </c>
+      <c r="G158" s="4" t="s">
+        <v>657</v>
+      </c>
+      <c r="H158" s="0" t="s">
+        <v>658</v>
+      </c>
+      <c r="J158" s="0" t="s">
         <v>655</v>
       </c>
-      <c r="G158" s="4" t="s">
-        <v>656</v>
-      </c>
-      <c r="H158" s="0" t="s">
-        <v>657</v>
-      </c>
-    </row>
-    <row r="159" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="4" t="s">
         <v>10</v>
       </c>
@@ -6386,19 +8930,22 @@
         <v>55</v>
       </c>
       <c r="E159" s="4" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="F159" s="0" t="s">
+        <v>660</v>
+      </c>
+      <c r="G159" s="4" t="s">
+        <v>661</v>
+      </c>
+      <c r="H159" s="0" t="s">
+        <v>662</v>
+      </c>
+      <c r="J159" s="0" t="s">
         <v>659</v>
       </c>
-      <c r="G159" s="4" t="s">
-        <v>660</v>
-      </c>
-      <c r="H159" s="0" t="s">
-        <v>661</v>
-      </c>
-    </row>
-    <row r="160" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="4" t="s">
         <v>10</v>
       </c>
@@ -6412,19 +8959,22 @@
         <v>37</v>
       </c>
       <c r="E160" s="4" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="F160" s="0" t="s">
+        <v>664</v>
+      </c>
+      <c r="G160" s="4" t="s">
+        <v>665</v>
+      </c>
+      <c r="H160" s="0" t="s">
+        <v>666</v>
+      </c>
+      <c r="J160" s="0" t="s">
         <v>663</v>
       </c>
-      <c r="G160" s="4" t="s">
-        <v>664</v>
-      </c>
-      <c r="H160" s="0" t="s">
-        <v>665</v>
-      </c>
-    </row>
-    <row r="161" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="4" t="s">
         <v>10</v>
       </c>
@@ -6438,19 +8988,22 @@
         <v>37</v>
       </c>
       <c r="E161" s="4" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="F161" s="0" t="s">
+        <v>668</v>
+      </c>
+      <c r="G161" s="4" t="s">
+        <v>669</v>
+      </c>
+      <c r="H161" s="0" t="s">
+        <v>670</v>
+      </c>
+      <c r="J161" s="0" t="s">
         <v>667</v>
       </c>
-      <c r="G161" s="4" t="s">
-        <v>668</v>
-      </c>
-      <c r="H161" s="0" t="s">
-        <v>669</v>
-      </c>
-    </row>
-    <row r="162" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="4" t="s">
         <v>10</v>
       </c>
@@ -6464,19 +9017,22 @@
         <v>37</v>
       </c>
       <c r="E162" s="4" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="F162" s="0" t="s">
+        <v>672</v>
+      </c>
+      <c r="G162" s="4" t="s">
+        <v>673</v>
+      </c>
+      <c r="H162" s="0" t="s">
+        <v>674</v>
+      </c>
+      <c r="J162" s="0" t="s">
         <v>671</v>
       </c>
-      <c r="G162" s="4" t="s">
-        <v>672</v>
-      </c>
-      <c r="H162" s="0" t="s">
-        <v>673</v>
-      </c>
-    </row>
-    <row r="163" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="4" t="s">
         <v>10</v>
       </c>
@@ -6490,19 +9046,22 @@
         <v>37</v>
       </c>
       <c r="E163" s="4" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="F163" s="0" t="s">
+        <v>676</v>
+      </c>
+      <c r="G163" s="4" t="s">
+        <v>677</v>
+      </c>
+      <c r="H163" s="0" t="s">
+        <v>678</v>
+      </c>
+      <c r="J163" s="0" t="s">
         <v>675</v>
       </c>
-      <c r="G163" s="4" t="s">
-        <v>676</v>
-      </c>
-      <c r="H163" s="0" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="164" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="4" t="s">
         <v>10</v>
       </c>
@@ -6516,19 +9075,22 @@
         <v>37</v>
       </c>
       <c r="E164" s="4" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="F164" s="0" t="s">
+        <v>680</v>
+      </c>
+      <c r="G164" s="4" t="s">
+        <v>681</v>
+      </c>
+      <c r="H164" s="0" t="s">
+        <v>682</v>
+      </c>
+      <c r="J164" s="0" t="s">
         <v>679</v>
       </c>
-      <c r="G164" s="4" t="s">
-        <v>680</v>
-      </c>
-      <c r="H164" s="0" t="s">
-        <v>681</v>
-      </c>
-    </row>
-    <row r="165" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="4" t="s">
         <v>10</v>
       </c>
@@ -6542,19 +9104,22 @@
         <v>55</v>
       </c>
       <c r="E165" s="4" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="F165" s="0" t="s">
+        <v>684</v>
+      </c>
+      <c r="G165" s="4" t="s">
+        <v>685</v>
+      </c>
+      <c r="H165" s="0" t="s">
+        <v>686</v>
+      </c>
+      <c r="J165" s="0" t="s">
         <v>683</v>
       </c>
-      <c r="G165" s="4" t="s">
-        <v>684</v>
-      </c>
-      <c r="H165" s="0" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="166" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="4" t="s">
         <v>10</v>
       </c>
@@ -6568,19 +9133,22 @@
         <v>13</v>
       </c>
       <c r="E166" s="4" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="F166" s="0" t="s">
+        <v>688</v>
+      </c>
+      <c r="G166" s="4" t="s">
+        <v>689</v>
+      </c>
+      <c r="H166" s="0" t="s">
+        <v>690</v>
+      </c>
+      <c r="J166" s="0" t="s">
         <v>687</v>
       </c>
-      <c r="G166" s="4" t="s">
-        <v>688</v>
-      </c>
-      <c r="H166" s="0" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="167" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="4" t="s">
         <v>10</v>
       </c>
@@ -6594,19 +9162,22 @@
         <v>43</v>
       </c>
       <c r="E167" s="4" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="F167" s="0" t="s">
+        <v>692</v>
+      </c>
+      <c r="G167" s="4" t="s">
+        <v>693</v>
+      </c>
+      <c r="H167" s="0" t="s">
+        <v>694</v>
+      </c>
+      <c r="J167" s="0" t="s">
         <v>691</v>
       </c>
-      <c r="G167" s="4" t="s">
-        <v>692</v>
-      </c>
-      <c r="H167" s="0" t="s">
-        <v>693</v>
-      </c>
-    </row>
-    <row r="168" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="4" t="s">
         <v>10</v>
       </c>
@@ -6620,16 +9191,19 @@
         <v>55</v>
       </c>
       <c r="E168" s="4" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="F168" s="0" t="s">
+        <v>696</v>
+      </c>
+      <c r="G168" s="4" t="s">
+        <v>697</v>
+      </c>
+      <c r="H168" s="0" t="s">
+        <v>698</v>
+      </c>
+      <c r="J168" s="0" t="s">
         <v>695</v>
-      </c>
-      <c r="G168" s="4" t="s">
-        <v>696</v>
-      </c>
-      <c r="H168" s="0" t="s">
-        <v>697</v>
       </c>
     </row>
   </sheetData>
@@ -6643,4 +9217,4573 @@
   </headerFooter>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:J271"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.76953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="18.9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="3.74"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="0" width="31.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="50.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="6" style="0" width="12.6"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>699</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>700</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>701</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>702</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>703</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>704</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>705</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>706</v>
+      </c>
+      <c r="I1" s="0" t="s">
+        <v>707</v>
+      </c>
+      <c r="J1" s="0" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>709</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>710</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>711</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>712</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>714</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>715</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>716</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>712</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>718</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>719</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>720</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>712</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>722</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>723</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>724</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>712</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>726</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>727</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>728</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>712</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>730</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>731</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>732</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>712</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>734</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>735</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>736</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>712</v>
+      </c>
+      <c r="F8" s="0" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>738</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>739</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>740</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>712</v>
+      </c>
+      <c r="F9" s="0" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>742</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>743</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>744</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>745</v>
+      </c>
+      <c r="F10" s="0" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>747</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>748</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>749</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>751</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>752</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>753</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>712</v>
+      </c>
+      <c r="F12" s="0" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>755</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>756</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>757</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>758</v>
+      </c>
+      <c r="F13" s="0" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>760</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>761</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>762</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>763</v>
+      </c>
+      <c r="F14" s="0" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
+        <v>765</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>766</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>767</v>
+      </c>
+      <c r="E15" s="0" t="s">
+        <v>768</v>
+      </c>
+      <c r="F15" s="0" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
+        <v>770</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>771</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>772</v>
+      </c>
+      <c r="E16" s="0" t="s">
+        <v>773</v>
+      </c>
+      <c r="F16" s="0" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
+        <v>775</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>776</v>
+      </c>
+      <c r="D17" s="0" t="s">
+        <v>777</v>
+      </c>
+      <c r="E17" s="0" t="s">
+        <v>750</v>
+      </c>
+      <c r="F17" s="0" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="s">
+        <v>779</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>780</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>781</v>
+      </c>
+      <c r="E18" s="0" t="s">
+        <v>782</v>
+      </c>
+      <c r="F18" s="0" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="s">
+        <v>784</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>785</v>
+      </c>
+      <c r="D19" s="0" t="s">
+        <v>786</v>
+      </c>
+      <c r="E19" s="0" t="s">
+        <v>787</v>
+      </c>
+      <c r="F19" s="0" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="s">
+        <v>789</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>790</v>
+      </c>
+      <c r="D20" s="0" t="s">
+        <v>791</v>
+      </c>
+      <c r="E20" s="0" t="s">
+        <v>792</v>
+      </c>
+      <c r="F20" s="0" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="s">
+        <v>794</v>
+      </c>
+      <c r="C21" s="0" t="s">
+        <v>795</v>
+      </c>
+      <c r="D21" s="0" t="s">
+        <v>796</v>
+      </c>
+      <c r="E21" s="0" t="s">
+        <v>797</v>
+      </c>
+      <c r="F21" s="0" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="s">
+        <v>799</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>800</v>
+      </c>
+      <c r="D22" s="0" t="s">
+        <v>801</v>
+      </c>
+      <c r="E22" s="0" t="s">
+        <v>802</v>
+      </c>
+      <c r="F22" s="0" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="s">
+        <v>804</v>
+      </c>
+      <c r="C23" s="0" t="s">
+        <v>805</v>
+      </c>
+      <c r="D23" s="0" t="s">
+        <v>806</v>
+      </c>
+      <c r="E23" s="0" t="s">
+        <v>712</v>
+      </c>
+      <c r="F23" s="0" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="s">
+        <v>808</v>
+      </c>
+      <c r="C24" s="0" t="s">
+        <v>809</v>
+      </c>
+      <c r="D24" s="0" t="s">
+        <v>810</v>
+      </c>
+      <c r="E24" s="0" t="s">
+        <v>712</v>
+      </c>
+      <c r="F24" s="0" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="C25" s="0" t="s">
+        <v>812</v>
+      </c>
+      <c r="D25" s="0" t="s">
+        <v>813</v>
+      </c>
+      <c r="E25" s="0" t="s">
+        <v>712</v>
+      </c>
+      <c r="F25" s="0" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C26" s="0" t="s">
+        <v>815</v>
+      </c>
+      <c r="D26" s="0" t="s">
+        <v>816</v>
+      </c>
+      <c r="E26" s="0" t="s">
+        <v>712</v>
+      </c>
+      <c r="F26" s="0" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C27" s="0" t="s">
+        <v>818</v>
+      </c>
+      <c r="D27" s="0" t="s">
+        <v>819</v>
+      </c>
+      <c r="E27" s="0" t="s">
+        <v>712</v>
+      </c>
+      <c r="F27" s="0" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="C28" s="0" t="s">
+        <v>821</v>
+      </c>
+      <c r="D28" s="0" t="s">
+        <v>822</v>
+      </c>
+      <c r="E28" s="0" t="s">
+        <v>712</v>
+      </c>
+      <c r="F28" s="0" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="C29" s="0" t="s">
+        <v>824</v>
+      </c>
+      <c r="D29" s="0" t="s">
+        <v>825</v>
+      </c>
+      <c r="E29" s="0" t="s">
+        <v>712</v>
+      </c>
+      <c r="F29" s="0" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="C30" s="0" t="s">
+        <v>827</v>
+      </c>
+      <c r="D30" s="0" t="s">
+        <v>828</v>
+      </c>
+      <c r="E30" s="0" t="s">
+        <v>712</v>
+      </c>
+      <c r="F30" s="0" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="C31" s="0" t="s">
+        <v>830</v>
+      </c>
+      <c r="D31" s="0" t="s">
+        <v>831</v>
+      </c>
+      <c r="E31" s="0" t="s">
+        <v>712</v>
+      </c>
+      <c r="F31" s="0" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="s">
+        <v>278</v>
+      </c>
+      <c r="C32" s="0" t="s">
+        <v>833</v>
+      </c>
+      <c r="D32" s="0" t="s">
+        <v>834</v>
+      </c>
+      <c r="E32" s="0" t="s">
+        <v>712</v>
+      </c>
+      <c r="F32" s="0" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="C33" s="0" t="s">
+        <v>836</v>
+      </c>
+      <c r="D33" s="0" t="s">
+        <v>837</v>
+      </c>
+      <c r="E33" s="0" t="s">
+        <v>712</v>
+      </c>
+      <c r="F33" s="0" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0" t="s">
+        <v>839</v>
+      </c>
+      <c r="C34" s="0" t="s">
+        <v>840</v>
+      </c>
+      <c r="D34" s="0" t="s">
+        <v>841</v>
+      </c>
+      <c r="E34" s="0" t="s">
+        <v>712</v>
+      </c>
+      <c r="F34" s="0" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="C35" s="0" t="s">
+        <v>843</v>
+      </c>
+      <c r="D35" s="0" t="s">
+        <v>844</v>
+      </c>
+      <c r="E35" s="0" t="s">
+        <v>712</v>
+      </c>
+      <c r="F35" s="0" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="0" t="s">
+        <v>846</v>
+      </c>
+      <c r="C36" s="0" t="s">
+        <v>847</v>
+      </c>
+      <c r="D36" s="0" t="s">
+        <v>848</v>
+      </c>
+      <c r="E36" s="0" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="0" t="s">
+        <v>849</v>
+      </c>
+      <c r="C37" s="0" t="s">
+        <v>850</v>
+      </c>
+      <c r="D37" s="0" t="s">
+        <v>851</v>
+      </c>
+      <c r="E37" s="0" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="0" t="s">
+        <v>852</v>
+      </c>
+      <c r="C38" s="0" t="s">
+        <v>853</v>
+      </c>
+      <c r="D38" s="0" t="s">
+        <v>854</v>
+      </c>
+      <c r="E38" s="0" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="0" t="s">
+        <v>855</v>
+      </c>
+      <c r="C39" s="0" t="s">
+        <v>856</v>
+      </c>
+      <c r="D39" s="0" t="s">
+        <v>857</v>
+      </c>
+      <c r="E39" s="0" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="0" t="s">
+        <v>858</v>
+      </c>
+      <c r="C40" s="0" t="s">
+        <v>859</v>
+      </c>
+      <c r="D40" s="0" t="s">
+        <v>860</v>
+      </c>
+      <c r="E40" s="0" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="0" t="s">
+        <v>861</v>
+      </c>
+      <c r="C41" s="0" t="s">
+        <v>862</v>
+      </c>
+      <c r="D41" s="0" t="s">
+        <v>863</v>
+      </c>
+      <c r="E41" s="0" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="0" t="s">
+        <v>864</v>
+      </c>
+      <c r="C42" s="0" t="s">
+        <v>865</v>
+      </c>
+      <c r="D42" s="0" t="s">
+        <v>866</v>
+      </c>
+      <c r="E42" s="0" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="0" t="s">
+        <v>867</v>
+      </c>
+      <c r="C43" s="0" t="s">
+        <v>868</v>
+      </c>
+      <c r="D43" s="0" t="s">
+        <v>869</v>
+      </c>
+      <c r="E43" s="0" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="0" t="s">
+        <v>870</v>
+      </c>
+      <c r="C44" s="0" t="s">
+        <v>871</v>
+      </c>
+      <c r="D44" s="0" t="s">
+        <v>872</v>
+      </c>
+      <c r="E44" s="0" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="0" t="s">
+        <v>873</v>
+      </c>
+      <c r="C45" s="0" t="s">
+        <v>874</v>
+      </c>
+      <c r="D45" s="0" t="s">
+        <v>875</v>
+      </c>
+      <c r="E45" s="0" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="0" t="s">
+        <v>876</v>
+      </c>
+      <c r="C46" s="0" t="s">
+        <v>877</v>
+      </c>
+      <c r="D46" s="0" t="s">
+        <v>878</v>
+      </c>
+      <c r="E46" s="0" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="0" t="s">
+        <v>879</v>
+      </c>
+      <c r="C47" s="0" t="s">
+        <v>880</v>
+      </c>
+      <c r="D47" s="0" t="s">
+        <v>881</v>
+      </c>
+      <c r="E47" s="0" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="0" t="s">
+        <v>883</v>
+      </c>
+      <c r="C48" s="0" t="s">
+        <v>884</v>
+      </c>
+      <c r="D48" s="0" t="s">
+        <v>885</v>
+      </c>
+      <c r="E48" s="0" t="s">
+        <v>882</v>
+      </c>
+      <c r="F48" s="0" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="0" t="s">
+        <v>886</v>
+      </c>
+      <c r="C49" s="0" t="s">
+        <v>887</v>
+      </c>
+      <c r="D49" s="0" t="s">
+        <v>888</v>
+      </c>
+      <c r="E49" s="0" t="s">
+        <v>882</v>
+      </c>
+      <c r="F49" s="0" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="0" t="s">
+        <v>889</v>
+      </c>
+      <c r="C50" s="0" t="s">
+        <v>890</v>
+      </c>
+      <c r="D50" s="0" t="s">
+        <v>891</v>
+      </c>
+      <c r="E50" s="0" t="s">
+        <v>882</v>
+      </c>
+      <c r="F50" s="0" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="0" t="s">
+        <v>892</v>
+      </c>
+      <c r="C51" s="0" t="s">
+        <v>893</v>
+      </c>
+      <c r="D51" s="0" t="s">
+        <v>894</v>
+      </c>
+      <c r="E51" s="0" t="s">
+        <v>882</v>
+      </c>
+      <c r="F51" s="0" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="0" t="s">
+        <v>895</v>
+      </c>
+      <c r="C52" s="0" t="s">
+        <v>896</v>
+      </c>
+      <c r="D52" s="0" t="s">
+        <v>897</v>
+      </c>
+      <c r="E52" s="0" t="s">
+        <v>882</v>
+      </c>
+      <c r="F52" s="0" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="0" t="s">
+        <v>898</v>
+      </c>
+      <c r="C53" s="0" t="s">
+        <v>899</v>
+      </c>
+      <c r="D53" s="0" t="s">
+        <v>900</v>
+      </c>
+      <c r="E53" s="0" t="s">
+        <v>882</v>
+      </c>
+      <c r="F53" s="0" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="0" t="s">
+        <v>901</v>
+      </c>
+      <c r="C54" s="0" t="s">
+        <v>902</v>
+      </c>
+      <c r="D54" s="0" t="s">
+        <v>903</v>
+      </c>
+      <c r="E54" s="0" t="s">
+        <v>882</v>
+      </c>
+      <c r="F54" s="0" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C55" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D55" s="0" t="s">
+        <v>904</v>
+      </c>
+      <c r="E55" s="0" t="s">
+        <v>905</v>
+      </c>
+      <c r="F55" s="0" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="0" t="s">
+        <v>907</v>
+      </c>
+      <c r="C56" s="0" t="s">
+        <v>908</v>
+      </c>
+      <c r="D56" s="0" t="s">
+        <v>909</v>
+      </c>
+      <c r="E56" s="0" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="0" t="s">
+        <v>910</v>
+      </c>
+      <c r="C57" s="0" t="s">
+        <v>911</v>
+      </c>
+      <c r="D57" s="0" t="s">
+        <v>912</v>
+      </c>
+      <c r="E57" s="0" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="0" t="s">
+        <v>913</v>
+      </c>
+      <c r="C58" s="0" t="s">
+        <v>914</v>
+      </c>
+      <c r="D58" s="0" t="s">
+        <v>915</v>
+      </c>
+      <c r="E58" s="0" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="0" t="s">
+        <v>916</v>
+      </c>
+      <c r="C59" s="0" t="s">
+        <v>917</v>
+      </c>
+      <c r="D59" s="0" t="s">
+        <v>918</v>
+      </c>
+      <c r="E59" s="0" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="0" t="s">
+        <v>919</v>
+      </c>
+      <c r="C60" s="0" t="s">
+        <v>920</v>
+      </c>
+      <c r="D60" s="0" t="s">
+        <v>921</v>
+      </c>
+      <c r="E60" s="0" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="0" t="s">
+        <v>922</v>
+      </c>
+      <c r="C61" s="0" t="s">
+        <v>923</v>
+      </c>
+      <c r="D61" s="0" t="s">
+        <v>924</v>
+      </c>
+      <c r="E61" s="0" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="0" t="s">
+        <v>925</v>
+      </c>
+      <c r="C62" s="0" t="s">
+        <v>926</v>
+      </c>
+      <c r="D62" s="0" t="s">
+        <v>927</v>
+      </c>
+      <c r="E62" s="0" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="0" t="s">
+        <v>928</v>
+      </c>
+      <c r="C63" s="0" t="s">
+        <v>929</v>
+      </c>
+      <c r="D63" s="0" t="s">
+        <v>930</v>
+      </c>
+      <c r="E63" s="0" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="0" t="s">
+        <v>931</v>
+      </c>
+      <c r="C64" s="0" t="s">
+        <v>932</v>
+      </c>
+      <c r="D64" s="0" t="s">
+        <v>933</v>
+      </c>
+      <c r="E64" s="0" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="0" t="s">
+        <v>934</v>
+      </c>
+      <c r="C65" s="0" t="s">
+        <v>935</v>
+      </c>
+      <c r="D65" s="0" t="s">
+        <v>936</v>
+      </c>
+      <c r="E65" s="0" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="0" t="s">
+        <v>937</v>
+      </c>
+      <c r="C66" s="0" t="s">
+        <v>938</v>
+      </c>
+      <c r="D66" s="0" t="s">
+        <v>939</v>
+      </c>
+      <c r="E66" s="0" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="0" t="s">
+        <v>940</v>
+      </c>
+      <c r="C67" s="0" t="s">
+        <v>941</v>
+      </c>
+      <c r="D67" s="0" t="s">
+        <v>942</v>
+      </c>
+      <c r="E67" s="0" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="0" t="s">
+        <v>943</v>
+      </c>
+      <c r="C68" s="0" t="s">
+        <v>944</v>
+      </c>
+      <c r="D68" s="0" t="s">
+        <v>945</v>
+      </c>
+      <c r="E68" s="0" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="0" t="s">
+        <v>946</v>
+      </c>
+      <c r="C69" s="0" t="s">
+        <v>947</v>
+      </c>
+      <c r="D69" s="0" t="s">
+        <v>948</v>
+      </c>
+      <c r="E69" s="0" t="s">
+        <v>712</v>
+      </c>
+      <c r="F69" s="0" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="C70" s="0" t="s">
+        <v>950</v>
+      </c>
+      <c r="D70" s="0" t="s">
+        <v>951</v>
+      </c>
+      <c r="E70" s="0" t="s">
+        <v>750</v>
+      </c>
+      <c r="F70" s="0" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="C71" s="0" t="s">
+        <v>952</v>
+      </c>
+      <c r="D71" s="0" t="s">
+        <v>953</v>
+      </c>
+      <c r="E71" s="0" t="s">
+        <v>763</v>
+      </c>
+      <c r="F71" s="0" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C72" s="0" t="s">
+        <v>954</v>
+      </c>
+      <c r="D72" s="0" t="s">
+        <v>955</v>
+      </c>
+      <c r="E72" s="0" t="s">
+        <v>768</v>
+      </c>
+      <c r="F72" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="0" t="s">
+        <v>956</v>
+      </c>
+      <c r="C73" s="0" t="s">
+        <v>957</v>
+      </c>
+      <c r="D73" s="0" t="s">
+        <v>958</v>
+      </c>
+      <c r="E73" s="0" t="s">
+        <v>750</v>
+      </c>
+      <c r="F73" s="0" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="C74" s="0" t="s">
+        <v>959</v>
+      </c>
+      <c r="D74" s="0" t="s">
+        <v>960</v>
+      </c>
+      <c r="E74" s="0" t="s">
+        <v>745</v>
+      </c>
+      <c r="F74" s="0" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="C75" s="0" t="s">
+        <v>961</v>
+      </c>
+      <c r="D75" s="0" t="s">
+        <v>962</v>
+      </c>
+      <c r="E75" s="0" t="s">
+        <v>787</v>
+      </c>
+      <c r="F75" s="0" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="C76" s="0" t="s">
+        <v>963</v>
+      </c>
+      <c r="D76" s="0" t="s">
+        <v>964</v>
+      </c>
+      <c r="E76" s="0" t="s">
+        <v>797</v>
+      </c>
+      <c r="F76" s="0" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="C77" s="0" t="s">
+        <v>965</v>
+      </c>
+      <c r="D77" s="0" t="s">
+        <v>966</v>
+      </c>
+      <c r="E77" s="0" t="s">
+        <v>802</v>
+      </c>
+      <c r="F77" s="0" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="C78" s="0" t="s">
+        <v>967</v>
+      </c>
+      <c r="D78" s="0" t="s">
+        <v>968</v>
+      </c>
+      <c r="E78" s="0" t="s">
+        <v>773</v>
+      </c>
+      <c r="F78" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="0" t="s">
+        <v>969</v>
+      </c>
+      <c r="C79" s="0" t="s">
+        <v>970</v>
+      </c>
+      <c r="D79" s="0" t="s">
+        <v>971</v>
+      </c>
+      <c r="E79" s="0" t="s">
+        <v>712</v>
+      </c>
+      <c r="F79" s="0" t="s">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="0" t="s">
+        <v>973</v>
+      </c>
+      <c r="C80" s="0" t="s">
+        <v>974</v>
+      </c>
+      <c r="D80" s="0" t="s">
+        <v>975</v>
+      </c>
+      <c r="E80" s="0" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="0" t="s">
+        <v>976</v>
+      </c>
+      <c r="C81" s="0" t="s">
+        <v>977</v>
+      </c>
+      <c r="D81" s="0" t="s">
+        <v>978</v>
+      </c>
+      <c r="E81" s="0" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="0" t="s">
+        <v>979</v>
+      </c>
+      <c r="C82" s="0" t="s">
+        <v>980</v>
+      </c>
+      <c r="D82" s="0" t="s">
+        <v>981</v>
+      </c>
+      <c r="E82" s="0" t="s">
+        <v>712</v>
+      </c>
+      <c r="F82" s="0" t="s">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="0" t="s">
+        <v>983</v>
+      </c>
+      <c r="C83" s="0" t="s">
+        <v>984</v>
+      </c>
+      <c r="D83" s="0" t="s">
+        <v>985</v>
+      </c>
+      <c r="E83" s="0" t="s">
+        <v>712</v>
+      </c>
+      <c r="F83" s="0" t="s">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="C84" s="0" t="s">
+        <v>987</v>
+      </c>
+      <c r="D84" s="0" t="s">
+        <v>988</v>
+      </c>
+      <c r="E84" s="0" t="s">
+        <v>797</v>
+      </c>
+      <c r="F84" s="0" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="C85" s="0" t="s">
+        <v>989</v>
+      </c>
+      <c r="D85" s="0" t="s">
+        <v>990</v>
+      </c>
+      <c r="E85" s="0" t="s">
+        <v>797</v>
+      </c>
+      <c r="F85" s="0" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="C86" s="0" t="s">
+        <v>991</v>
+      </c>
+      <c r="D86" s="0" t="s">
+        <v>992</v>
+      </c>
+      <c r="E86" s="0" t="s">
+        <v>787</v>
+      </c>
+      <c r="F86" s="0" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="C87" s="0" t="s">
+        <v>993</v>
+      </c>
+      <c r="D87" s="0" t="s">
+        <v>994</v>
+      </c>
+      <c r="E87" s="0" t="s">
+        <v>797</v>
+      </c>
+      <c r="F87" s="0" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="C88" s="0" t="s">
+        <v>995</v>
+      </c>
+      <c r="D88" s="0" t="s">
+        <v>996</v>
+      </c>
+      <c r="E88" s="0" t="s">
+        <v>745</v>
+      </c>
+      <c r="F88" s="0" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="0" t="s">
+        <v>262</v>
+      </c>
+      <c r="C89" s="0" t="s">
+        <v>997</v>
+      </c>
+      <c r="D89" s="0" t="s">
+        <v>998</v>
+      </c>
+      <c r="E89" s="0" t="s">
+        <v>763</v>
+      </c>
+      <c r="F89" s="0" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="C90" s="0" t="s">
+        <v>999</v>
+      </c>
+      <c r="D90" s="0" t="s">
+        <v>1000</v>
+      </c>
+      <c r="E90" s="0" t="s">
+        <v>768</v>
+      </c>
+      <c r="F90" s="0" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="C91" s="0" t="s">
+        <v>1001</v>
+      </c>
+      <c r="D91" s="0" t="s">
+        <v>1002</v>
+      </c>
+      <c r="E91" s="0" t="s">
+        <v>797</v>
+      </c>
+      <c r="F91" s="0" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="C92" s="0" t="s">
+        <v>1003</v>
+      </c>
+      <c r="D92" s="0" t="s">
+        <v>1004</v>
+      </c>
+      <c r="E92" s="0" t="s">
+        <v>782</v>
+      </c>
+      <c r="F92" s="0" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="C93" s="0" t="s">
+        <v>1005</v>
+      </c>
+      <c r="D93" s="0" t="s">
+        <v>1006</v>
+      </c>
+      <c r="E93" s="0" t="s">
+        <v>787</v>
+      </c>
+      <c r="F93" s="0" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="C94" s="0" t="s">
+        <v>1007</v>
+      </c>
+      <c r="D94" s="0" t="s">
+        <v>1008</v>
+      </c>
+      <c r="E94" s="0" t="s">
+        <v>768</v>
+      </c>
+      <c r="F94" s="0" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="C95" s="0" t="s">
+        <v>1009</v>
+      </c>
+      <c r="D95" s="0" t="s">
+        <v>1010</v>
+      </c>
+      <c r="E95" s="0" t="s">
+        <v>768</v>
+      </c>
+      <c r="F95" s="0" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="C96" s="0" t="s">
+        <v>1011</v>
+      </c>
+      <c r="D96" s="0" t="s">
+        <v>1012</v>
+      </c>
+      <c r="E96" s="0" t="s">
+        <v>773</v>
+      </c>
+      <c r="F96" s="0" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="0" t="s">
+        <v>1013</v>
+      </c>
+      <c r="C97" s="0" t="s">
+        <v>1014</v>
+      </c>
+      <c r="D97" s="0" t="s">
+        <v>1015</v>
+      </c>
+      <c r="E97" s="0" t="s">
+        <v>882</v>
+      </c>
+      <c r="F97" s="0" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="C98" s="0" t="s">
+        <v>1016</v>
+      </c>
+      <c r="D98" s="0" t="s">
+        <v>1017</v>
+      </c>
+      <c r="E98" s="0" t="s">
+        <v>768</v>
+      </c>
+      <c r="F98" s="0" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="C99" s="0" t="s">
+        <v>1018</v>
+      </c>
+      <c r="D99" s="0" t="s">
+        <v>1019</v>
+      </c>
+      <c r="E99" s="0" t="s">
+        <v>787</v>
+      </c>
+      <c r="F99" s="0" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="0" t="s">
+        <v>142</v>
+      </c>
+      <c r="C100" s="0" t="s">
+        <v>1020</v>
+      </c>
+      <c r="D100" s="0" t="s">
+        <v>1021</v>
+      </c>
+      <c r="E100" s="0" t="s">
+        <v>773</v>
+      </c>
+      <c r="F100" s="0" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A101" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="C101" s="0" t="s">
+        <v>1022</v>
+      </c>
+      <c r="D101" s="0" t="s">
+        <v>1023</v>
+      </c>
+      <c r="E101" s="0" t="s">
+        <v>750</v>
+      </c>
+      <c r="F101" s="0" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A102" s="0" t="s">
+        <v>138</v>
+      </c>
+      <c r="C102" s="0" t="s">
+        <v>1024</v>
+      </c>
+      <c r="D102" s="0" t="s">
+        <v>1025</v>
+      </c>
+      <c r="E102" s="0" t="s">
+        <v>802</v>
+      </c>
+      <c r="F102" s="0" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="103" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A103" s="0" t="s">
+        <v>146</v>
+      </c>
+      <c r="C103" s="0" t="s">
+        <v>1026</v>
+      </c>
+      <c r="D103" s="0" t="s">
+        <v>1027</v>
+      </c>
+      <c r="E103" s="0" t="s">
+        <v>782</v>
+      </c>
+      <c r="F103" s="0" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A104" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="C104" s="0" t="s">
+        <v>1028</v>
+      </c>
+      <c r="D104" s="0" t="s">
+        <v>1029</v>
+      </c>
+      <c r="E104" s="0" t="s">
+        <v>768</v>
+      </c>
+      <c r="F104" s="0" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="105" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A105" s="0" t="s">
+        <v>1030</v>
+      </c>
+      <c r="C105" s="0" t="s">
+        <v>1031</v>
+      </c>
+      <c r="D105" s="0" t="s">
+        <v>1032</v>
+      </c>
+      <c r="E105" s="0" t="s">
+        <v>758</v>
+      </c>
+      <c r="F105" s="0" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="106" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A106" s="0" t="s">
+        <v>154</v>
+      </c>
+      <c r="C106" s="0" t="s">
+        <v>1033</v>
+      </c>
+      <c r="D106" s="0" t="s">
+        <v>1034</v>
+      </c>
+      <c r="E106" s="0" t="s">
+        <v>782</v>
+      </c>
+      <c r="F106" s="0" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="107" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A107" s="0" t="s">
+        <v>158</v>
+      </c>
+      <c r="C107" s="0" t="s">
+        <v>1035</v>
+      </c>
+      <c r="D107" s="0" t="s">
+        <v>1036</v>
+      </c>
+      <c r="E107" s="0" t="s">
+        <v>802</v>
+      </c>
+      <c r="F107" s="0" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="108" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A108" s="0" t="s">
+        <v>162</v>
+      </c>
+      <c r="C108" s="0" t="s">
+        <v>1037</v>
+      </c>
+      <c r="D108" s="0" t="s">
+        <v>1038</v>
+      </c>
+      <c r="E108" s="0" t="s">
+        <v>787</v>
+      </c>
+      <c r="F108" s="0" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="109" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A109" s="0" t="s">
+        <v>170</v>
+      </c>
+      <c r="C109" s="0" t="s">
+        <v>1039</v>
+      </c>
+      <c r="D109" s="0" t="s">
+        <v>1040</v>
+      </c>
+      <c r="E109" s="0" t="s">
+        <v>787</v>
+      </c>
+      <c r="F109" s="0" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="110" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A110" s="0" t="s">
+        <v>166</v>
+      </c>
+      <c r="C110" s="0" t="s">
+        <v>1041</v>
+      </c>
+      <c r="D110" s="0" t="s">
+        <v>1042</v>
+      </c>
+      <c r="E110" s="0" t="s">
+        <v>750</v>
+      </c>
+      <c r="F110" s="0" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="111" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A111" s="0" t="s">
+        <v>174</v>
+      </c>
+      <c r="C111" s="0" t="s">
+        <v>1043</v>
+      </c>
+      <c r="D111" s="0" t="s">
+        <v>1044</v>
+      </c>
+      <c r="E111" s="0" t="s">
+        <v>797</v>
+      </c>
+      <c r="F111" s="0" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="112" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A112" s="0" t="s">
+        <v>178</v>
+      </c>
+      <c r="C112" s="0" t="s">
+        <v>1045</v>
+      </c>
+      <c r="D112" s="0" t="s">
+        <v>1046</v>
+      </c>
+      <c r="E112" s="0" t="s">
+        <v>773</v>
+      </c>
+      <c r="F112" s="0" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="113" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A113" s="0" t="s">
+        <v>186</v>
+      </c>
+      <c r="C113" s="0" t="s">
+        <v>1047</v>
+      </c>
+      <c r="D113" s="0" t="s">
+        <v>1048</v>
+      </c>
+      <c r="E113" s="0" t="s">
+        <v>797</v>
+      </c>
+      <c r="F113" s="0" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="114" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A114" s="0" t="s">
+        <v>182</v>
+      </c>
+      <c r="C114" s="0" t="s">
+        <v>1049</v>
+      </c>
+      <c r="D114" s="0" t="s">
+        <v>1050</v>
+      </c>
+      <c r="E114" s="0" t="s">
+        <v>768</v>
+      </c>
+      <c r="F114" s="0" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="115" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A115" s="0" t="s">
+        <v>1051</v>
+      </c>
+      <c r="C115" s="0" t="s">
+        <v>1052</v>
+      </c>
+      <c r="D115" s="0" t="s">
+        <v>1053</v>
+      </c>
+      <c r="E115" s="0" t="s">
+        <v>768</v>
+      </c>
+      <c r="F115" s="0" t="s">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="116" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A116" s="0" t="s">
+        <v>190</v>
+      </c>
+      <c r="C116" s="0" t="s">
+        <v>1054</v>
+      </c>
+      <c r="D116" s="0" t="s">
+        <v>1055</v>
+      </c>
+      <c r="E116" s="0" t="s">
+        <v>768</v>
+      </c>
+      <c r="F116" s="0" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="117" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A117" s="0" t="s">
+        <v>194</v>
+      </c>
+      <c r="C117" s="0" t="s">
+        <v>1056</v>
+      </c>
+      <c r="D117" s="0" t="s">
+        <v>1057</v>
+      </c>
+      <c r="E117" s="0" t="s">
+        <v>773</v>
+      </c>
+      <c r="F117" s="0" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="118" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A118" s="0" t="s">
+        <v>198</v>
+      </c>
+      <c r="C118" s="0" t="s">
+        <v>1058</v>
+      </c>
+      <c r="D118" s="0" t="s">
+        <v>1059</v>
+      </c>
+      <c r="E118" s="0" t="s">
+        <v>797</v>
+      </c>
+      <c r="F118" s="0" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="119" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A119" s="0" t="s">
+        <v>1060</v>
+      </c>
+      <c r="C119" s="0" t="s">
+        <v>1061</v>
+      </c>
+      <c r="D119" s="0" t="s">
+        <v>1062</v>
+      </c>
+      <c r="E119" s="0" t="s">
+        <v>882</v>
+      </c>
+      <c r="F119" s="0" t="s">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="120" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A120" s="0" t="s">
+        <v>202</v>
+      </c>
+      <c r="C120" s="0" t="s">
+        <v>1063</v>
+      </c>
+      <c r="D120" s="0" t="s">
+        <v>1064</v>
+      </c>
+      <c r="E120" s="0" t="s">
+        <v>768</v>
+      </c>
+      <c r="F120" s="0" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="121" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A121" s="0" t="s">
+        <v>210</v>
+      </c>
+      <c r="C121" s="0" t="s">
+        <v>1065</v>
+      </c>
+      <c r="D121" s="0" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E121" s="0" t="s">
+        <v>802</v>
+      </c>
+      <c r="F121" s="0" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="122" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A122" s="0" t="s">
+        <v>222</v>
+      </c>
+      <c r="C122" s="0" t="s">
+        <v>1067</v>
+      </c>
+      <c r="D122" s="0" t="s">
+        <v>1068</v>
+      </c>
+      <c r="E122" s="0" t="s">
+        <v>797</v>
+      </c>
+      <c r="F122" s="0" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="123" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A123" s="0" t="s">
+        <v>226</v>
+      </c>
+      <c r="C123" s="0" t="s">
+        <v>1069</v>
+      </c>
+      <c r="D123" s="0" t="s">
+        <v>1070</v>
+      </c>
+      <c r="E123" s="0" t="s">
+        <v>787</v>
+      </c>
+      <c r="F123" s="0" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="124" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A124" s="0" t="s">
+        <v>214</v>
+      </c>
+      <c r="C124" s="0" t="s">
+        <v>1071</v>
+      </c>
+      <c r="D124" s="0" t="s">
+        <v>1072</v>
+      </c>
+      <c r="E124" s="0" t="s">
+        <v>797</v>
+      </c>
+      <c r="F124" s="0" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="125" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A125" s="0" t="s">
+        <v>218</v>
+      </c>
+      <c r="C125" s="0" t="s">
+        <v>1073</v>
+      </c>
+      <c r="D125" s="0" t="s">
+        <v>1074</v>
+      </c>
+      <c r="E125" s="0" t="s">
+        <v>802</v>
+      </c>
+      <c r="F125" s="0" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="126" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A126" s="0" t="s">
+        <v>234</v>
+      </c>
+      <c r="C126" s="0" t="s">
+        <v>1075</v>
+      </c>
+      <c r="D126" s="0" t="s">
+        <v>1076</v>
+      </c>
+      <c r="E126" s="0" t="s">
+        <v>773</v>
+      </c>
+      <c r="F126" s="0" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="127" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A127" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="C127" s="0" t="s">
+        <v>1077</v>
+      </c>
+      <c r="D127" s="0" t="s">
+        <v>1078</v>
+      </c>
+      <c r="E127" s="0" t="s">
+        <v>768</v>
+      </c>
+      <c r="F127" s="0" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="128" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A128" s="0" t="s">
+        <v>238</v>
+      </c>
+      <c r="C128" s="0" t="s">
+        <v>1079</v>
+      </c>
+      <c r="D128" s="0" t="s">
+        <v>1080</v>
+      </c>
+      <c r="E128" s="0" t="s">
+        <v>802</v>
+      </c>
+      <c r="F128" s="0" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="129" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A129" s="0" t="s">
+        <v>242</v>
+      </c>
+      <c r="C129" s="0" t="s">
+        <v>1081</v>
+      </c>
+      <c r="D129" s="0" t="s">
+        <v>1082</v>
+      </c>
+      <c r="E129" s="0" t="s">
+        <v>787</v>
+      </c>
+      <c r="F129" s="0" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="130" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A130" s="0" t="s">
+        <v>246</v>
+      </c>
+      <c r="C130" s="0" t="s">
+        <v>1083</v>
+      </c>
+      <c r="D130" s="0" t="s">
+        <v>1084</v>
+      </c>
+      <c r="E130" s="0" t="s">
+        <v>750</v>
+      </c>
+      <c r="F130" s="0" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="131" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A131" s="0" t="s">
+        <v>230</v>
+      </c>
+      <c r="C131" s="0" t="s">
+        <v>1085</v>
+      </c>
+      <c r="D131" s="0" t="s">
+        <v>1086</v>
+      </c>
+      <c r="E131" s="0" t="s">
+        <v>763</v>
+      </c>
+      <c r="F131" s="0" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="132" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A132" s="0" t="s">
+        <v>254</v>
+      </c>
+      <c r="C132" s="0" t="s">
+        <v>1087</v>
+      </c>
+      <c r="D132" s="0" t="s">
+        <v>1088</v>
+      </c>
+      <c r="E132" s="0" t="s">
+        <v>802</v>
+      </c>
+      <c r="F132" s="0" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="133" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A133" s="0" t="s">
+        <v>258</v>
+      </c>
+      <c r="C133" s="0" t="s">
+        <v>1089</v>
+      </c>
+      <c r="D133" s="0" t="s">
+        <v>1090</v>
+      </c>
+      <c r="E133" s="0" t="s">
+        <v>768</v>
+      </c>
+      <c r="F133" s="0" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="134" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A134" s="0" t="s">
+        <v>1091</v>
+      </c>
+      <c r="C134" s="0" t="s">
+        <v>1092</v>
+      </c>
+      <c r="D134" s="0" t="s">
+        <v>1093</v>
+      </c>
+      <c r="E134" s="0" t="s">
+        <v>758</v>
+      </c>
+      <c r="F134" s="0" t="s">
+        <v>1091</v>
+      </c>
+    </row>
+    <row r="135" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A135" s="0" t="s">
+        <v>1094</v>
+      </c>
+      <c r="C135" s="0" t="s">
+        <v>1095</v>
+      </c>
+      <c r="D135" s="0" t="s">
+        <v>1096</v>
+      </c>
+      <c r="E135" s="0" t="s">
+        <v>882</v>
+      </c>
+      <c r="F135" s="0" t="s">
+        <v>1094</v>
+      </c>
+    </row>
+    <row r="136" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A136" s="0" t="s">
+        <v>1097</v>
+      </c>
+      <c r="C136" s="0" t="s">
+        <v>1098</v>
+      </c>
+      <c r="D136" s="0" t="s">
+        <v>1099</v>
+      </c>
+      <c r="E136" s="0" t="s">
+        <v>758</v>
+      </c>
+      <c r="F136" s="0" t="s">
+        <v>1097</v>
+      </c>
+    </row>
+    <row r="137" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A137" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="C137" s="0" t="s">
+        <v>1100</v>
+      </c>
+      <c r="D137" s="0" t="s">
+        <v>1101</v>
+      </c>
+      <c r="E137" s="0" t="s">
+        <v>773</v>
+      </c>
+      <c r="F137" s="0" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="138" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A138" s="0" t="s">
+        <v>1102</v>
+      </c>
+      <c r="C138" s="0" t="s">
+        <v>1103</v>
+      </c>
+      <c r="D138" s="0" t="s">
+        <v>1104</v>
+      </c>
+      <c r="E138" s="0" t="s">
+        <v>882</v>
+      </c>
+      <c r="F138" s="0" t="s">
+        <v>1102</v>
+      </c>
+    </row>
+    <row r="139" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A139" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="C139" s="0" t="s">
+        <v>1105</v>
+      </c>
+      <c r="D139" s="0" t="s">
+        <v>1106</v>
+      </c>
+      <c r="E139" s="0" t="s">
+        <v>802</v>
+      </c>
+      <c r="F139" s="0" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="140" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A140" s="0" t="s">
+        <v>206</v>
+      </c>
+      <c r="C140" s="0" t="s">
+        <v>1107</v>
+      </c>
+      <c r="D140" s="0" t="s">
+        <v>1108</v>
+      </c>
+      <c r="E140" s="0" t="s">
+        <v>782</v>
+      </c>
+      <c r="F140" s="0" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="141" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A141" s="0" t="s">
+        <v>1109</v>
+      </c>
+      <c r="C141" s="0" t="s">
+        <v>1110</v>
+      </c>
+      <c r="D141" s="0" t="s">
+        <v>1111</v>
+      </c>
+      <c r="E141" s="0" t="s">
+        <v>797</v>
+      </c>
+      <c r="F141" s="0" t="s">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="142" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A142" s="0" t="s">
+        <v>270</v>
+      </c>
+      <c r="C142" s="0" t="s">
+        <v>1112</v>
+      </c>
+      <c r="D142" s="0" t="s">
+        <v>1113</v>
+      </c>
+      <c r="E142" s="0" t="s">
+        <v>797</v>
+      </c>
+      <c r="F142" s="0" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="143" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A143" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="C143" s="0" t="s">
+        <v>1114</v>
+      </c>
+      <c r="D143" s="0" t="s">
+        <v>1115</v>
+      </c>
+      <c r="E143" s="0" t="s">
+        <v>782</v>
+      </c>
+      <c r="F143" s="0" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="144" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A144" s="0" t="s">
+        <v>266</v>
+      </c>
+      <c r="C144" s="0" t="s">
+        <v>1116</v>
+      </c>
+      <c r="D144" s="0" t="s">
+        <v>1117</v>
+      </c>
+      <c r="E144" s="0" t="s">
+        <v>768</v>
+      </c>
+      <c r="F144" s="0" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="145" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A145" s="0" t="s">
+        <v>280</v>
+      </c>
+      <c r="C145" s="0" t="s">
+        <v>1118</v>
+      </c>
+      <c r="D145" s="0" t="s">
+        <v>1119</v>
+      </c>
+      <c r="E145" s="0" t="s">
+        <v>792</v>
+      </c>
+      <c r="F145" s="0" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="146" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A146" s="0" t="s">
+        <v>296</v>
+      </c>
+      <c r="C146" s="0" t="s">
+        <v>1120</v>
+      </c>
+      <c r="D146" s="0" t="s">
+        <v>1121</v>
+      </c>
+      <c r="E146" s="0" t="s">
+        <v>745</v>
+      </c>
+      <c r="F146" s="0" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="147" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A147" s="0" t="s">
+        <v>300</v>
+      </c>
+      <c r="C147" s="0" t="s">
+        <v>1122</v>
+      </c>
+      <c r="D147" s="0" t="s">
+        <v>1123</v>
+      </c>
+      <c r="E147" s="0" t="s">
+        <v>763</v>
+      </c>
+      <c r="F147" s="0" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="148" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A148" s="0" t="s">
+        <v>1124</v>
+      </c>
+      <c r="C148" s="0" t="s">
+        <v>1125</v>
+      </c>
+      <c r="D148" s="0" t="s">
+        <v>1126</v>
+      </c>
+      <c r="E148" s="0" t="s">
+        <v>882</v>
+      </c>
+      <c r="F148" s="0" t="s">
+        <v>1124</v>
+      </c>
+    </row>
+    <row r="149" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A149" s="0" t="s">
+        <v>1127</v>
+      </c>
+      <c r="C149" s="0" t="s">
+        <v>1128</v>
+      </c>
+      <c r="D149" s="0" t="s">
+        <v>1129</v>
+      </c>
+      <c r="E149" s="0" t="s">
+        <v>763</v>
+      </c>
+      <c r="F149" s="0" t="s">
+        <v>1127</v>
+      </c>
+    </row>
+    <row r="150" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A150" s="0" t="s">
+        <v>312</v>
+      </c>
+      <c r="C150" s="0" t="s">
+        <v>1130</v>
+      </c>
+      <c r="D150" s="0" t="s">
+        <v>1131</v>
+      </c>
+      <c r="E150" s="0" t="s">
+        <v>750</v>
+      </c>
+      <c r="F150" s="0" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="151" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A151" s="0" t="s">
+        <v>316</v>
+      </c>
+      <c r="C151" s="0" t="s">
+        <v>1132</v>
+      </c>
+      <c r="D151" s="0" t="s">
+        <v>1133</v>
+      </c>
+      <c r="E151" s="0" t="s">
+        <v>773</v>
+      </c>
+      <c r="F151" s="0" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="152" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A152" s="0" t="s">
+        <v>324</v>
+      </c>
+      <c r="C152" s="0" t="s">
+        <v>1134</v>
+      </c>
+      <c r="D152" s="0" t="s">
+        <v>1135</v>
+      </c>
+      <c r="E152" s="0" t="s">
+        <v>745</v>
+      </c>
+      <c r="F152" s="0" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="153" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A153" s="0" t="s">
+        <v>328</v>
+      </c>
+      <c r="C153" s="0" t="s">
+        <v>1136</v>
+      </c>
+      <c r="D153" s="0" t="s">
+        <v>1137</v>
+      </c>
+      <c r="E153" s="0" t="s">
+        <v>745</v>
+      </c>
+      <c r="F153" s="0" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="154" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A154" s="0" t="s">
+        <v>336</v>
+      </c>
+      <c r="C154" s="0" t="s">
+        <v>1138</v>
+      </c>
+      <c r="D154" s="0" t="s">
+        <v>1139</v>
+      </c>
+      <c r="E154" s="0" t="s">
+        <v>745</v>
+      </c>
+      <c r="F154" s="0" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="155" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A155" s="0" t="s">
+        <v>332</v>
+      </c>
+      <c r="C155" s="0" t="s">
+        <v>1140</v>
+      </c>
+      <c r="D155" s="0" t="s">
+        <v>1141</v>
+      </c>
+      <c r="E155" s="0" t="s">
+        <v>745</v>
+      </c>
+      <c r="F155" s="0" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="156" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A156" s="0" t="s">
+        <v>340</v>
+      </c>
+      <c r="C156" s="0" t="s">
+        <v>1142</v>
+      </c>
+      <c r="D156" s="0" t="s">
+        <v>1143</v>
+      </c>
+      <c r="E156" s="0" t="s">
+        <v>745</v>
+      </c>
+      <c r="F156" s="0" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="157" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A157" s="0" t="s">
+        <v>320</v>
+      </c>
+      <c r="C157" s="0" t="s">
+        <v>1144</v>
+      </c>
+      <c r="D157" s="0" t="s">
+        <v>1145</v>
+      </c>
+      <c r="E157" s="0" t="s">
+        <v>787</v>
+      </c>
+      <c r="F157" s="0" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="158" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A158" s="0" t="s">
+        <v>1146</v>
+      </c>
+      <c r="C158" s="0" t="s">
+        <v>1147</v>
+      </c>
+      <c r="D158" s="0" t="s">
+        <v>1148</v>
+      </c>
+      <c r="E158" s="0" t="s">
+        <v>763</v>
+      </c>
+      <c r="F158" s="0" t="s">
+        <v>1146</v>
+      </c>
+    </row>
+    <row r="159" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A159" s="0" t="s">
+        <v>304</v>
+      </c>
+      <c r="C159" s="0" t="s">
+        <v>1149</v>
+      </c>
+      <c r="D159" s="0" t="s">
+        <v>1150</v>
+      </c>
+      <c r="E159" s="0" t="s">
+        <v>768</v>
+      </c>
+      <c r="F159" s="0" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="160" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A160" s="0" t="s">
+        <v>308</v>
+      </c>
+      <c r="C160" s="0" t="s">
+        <v>1151</v>
+      </c>
+      <c r="D160" s="0" t="s">
+        <v>1152</v>
+      </c>
+      <c r="E160" s="0" t="s">
+        <v>763</v>
+      </c>
+      <c r="F160" s="0" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="161" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A161" s="0" t="s">
+        <v>344</v>
+      </c>
+      <c r="C161" s="0" t="s">
+        <v>1153</v>
+      </c>
+      <c r="D161" s="0" t="s">
+        <v>1154</v>
+      </c>
+      <c r="E161" s="0" t="s">
+        <v>745</v>
+      </c>
+      <c r="F161" s="0" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="162" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A162" s="0" t="s">
+        <v>1155</v>
+      </c>
+      <c r="C162" s="0" t="s">
+        <v>1156</v>
+      </c>
+      <c r="D162" s="0" t="s">
+        <v>1157</v>
+      </c>
+      <c r="E162" s="0" t="s">
+        <v>758</v>
+      </c>
+      <c r="F162" s="0" t="s">
+        <v>1155</v>
+      </c>
+    </row>
+    <row r="163" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A163" s="0" t="s">
+        <v>354</v>
+      </c>
+      <c r="C163" s="0" t="s">
+        <v>1158</v>
+      </c>
+      <c r="D163" s="0" t="s">
+        <v>1159</v>
+      </c>
+      <c r="E163" s="0" t="s">
+        <v>797</v>
+      </c>
+      <c r="F163" s="0" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="164" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A164" s="0" t="s">
+        <v>358</v>
+      </c>
+      <c r="C164" s="0" t="s">
+        <v>1160</v>
+      </c>
+      <c r="D164" s="0" t="s">
+        <v>1161</v>
+      </c>
+      <c r="E164" s="0" t="s">
+        <v>797</v>
+      </c>
+      <c r="F164" s="0" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="165" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A165" s="0" t="s">
+        <v>348</v>
+      </c>
+      <c r="C165" s="0" t="s">
+        <v>1162</v>
+      </c>
+      <c r="D165" s="0" t="s">
+        <v>1163</v>
+      </c>
+      <c r="E165" s="0" t="s">
+        <v>763</v>
+      </c>
+      <c r="F165" s="0" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="166" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A166" s="0" t="s">
+        <v>1164</v>
+      </c>
+      <c r="C166" s="0" t="s">
+        <v>1165</v>
+      </c>
+      <c r="D166" s="0" t="s">
+        <v>1166</v>
+      </c>
+      <c r="E166" s="0" t="s">
+        <v>758</v>
+      </c>
+      <c r="F166" s="0" t="s">
+        <v>1164</v>
+      </c>
+    </row>
+    <row r="167" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A167" s="0" t="s">
+        <v>362</v>
+      </c>
+      <c r="C167" s="0" t="s">
+        <v>1167</v>
+      </c>
+      <c r="D167" s="0" t="s">
+        <v>1168</v>
+      </c>
+      <c r="E167" s="0" t="s">
+        <v>802</v>
+      </c>
+      <c r="F167" s="0" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="168" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A168" s="0" t="s">
+        <v>366</v>
+      </c>
+      <c r="C168" s="0" t="s">
+        <v>1169</v>
+      </c>
+      <c r="D168" s="0" t="s">
+        <v>1170</v>
+      </c>
+      <c r="E168" s="0" t="s">
+        <v>750</v>
+      </c>
+      <c r="F168" s="0" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="169" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A169" s="0" t="s">
+        <v>370</v>
+      </c>
+      <c r="C169" s="0" t="s">
+        <v>1171</v>
+      </c>
+      <c r="D169" s="0" t="s">
+        <v>1172</v>
+      </c>
+      <c r="E169" s="0" t="s">
+        <v>797</v>
+      </c>
+      <c r="F169" s="0" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="170" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A170" s="0" t="s">
+        <v>1173</v>
+      </c>
+      <c r="C170" s="0" t="s">
+        <v>1174</v>
+      </c>
+      <c r="D170" s="0" t="s">
+        <v>1175</v>
+      </c>
+      <c r="E170" s="0" t="s">
+        <v>768</v>
+      </c>
+      <c r="F170" s="0" t="s">
+        <v>1173</v>
+      </c>
+    </row>
+    <row r="171" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A171" s="0" t="s">
+        <v>382</v>
+      </c>
+      <c r="C171" s="0" t="s">
+        <v>1176</v>
+      </c>
+      <c r="D171" s="0" t="s">
+        <v>1177</v>
+      </c>
+      <c r="E171" s="0" t="s">
+        <v>745</v>
+      </c>
+      <c r="F171" s="0" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="172" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A172" s="0" t="s">
+        <v>386</v>
+      </c>
+      <c r="C172" s="0" t="s">
+        <v>1178</v>
+      </c>
+      <c r="D172" s="0" t="s">
+        <v>1179</v>
+      </c>
+      <c r="E172" s="0" t="s">
+        <v>768</v>
+      </c>
+      <c r="F172" s="0" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="173" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A173" s="0" t="s">
+        <v>374</v>
+      </c>
+      <c r="C173" s="0" t="s">
+        <v>1180</v>
+      </c>
+      <c r="D173" s="0" t="s">
+        <v>1181</v>
+      </c>
+      <c r="E173" s="0" t="s">
+        <v>797</v>
+      </c>
+      <c r="F173" s="0" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="174" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A174" s="0" t="s">
+        <v>390</v>
+      </c>
+      <c r="C174" s="0" t="s">
+        <v>1182</v>
+      </c>
+      <c r="D174" s="0" t="s">
+        <v>1183</v>
+      </c>
+      <c r="E174" s="0" t="s">
+        <v>773</v>
+      </c>
+      <c r="F174" s="0" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="175" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A175" s="0" t="s">
+        <v>378</v>
+      </c>
+      <c r="C175" s="0" t="s">
+        <v>1184</v>
+      </c>
+      <c r="D175" s="0" t="s">
+        <v>1185</v>
+      </c>
+      <c r="E175" s="0" t="s">
+        <v>768</v>
+      </c>
+      <c r="F175" s="0" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="176" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A176" s="0" t="s">
+        <v>394</v>
+      </c>
+      <c r="C176" s="0" t="s">
+        <v>1186</v>
+      </c>
+      <c r="D176" s="0" t="s">
+        <v>1187</v>
+      </c>
+      <c r="E176" s="0" t="s">
+        <v>787</v>
+      </c>
+      <c r="F176" s="0" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="177" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A177" s="0" t="s">
+        <v>398</v>
+      </c>
+      <c r="C177" s="0" t="s">
+        <v>1188</v>
+      </c>
+      <c r="D177" s="0" t="s">
+        <v>1189</v>
+      </c>
+      <c r="E177" s="0" t="s">
+        <v>782</v>
+      </c>
+      <c r="F177" s="0" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="178" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A178" s="0" t="s">
+        <v>402</v>
+      </c>
+      <c r="C178" s="0" t="s">
+        <v>1190</v>
+      </c>
+      <c r="D178" s="0" t="s">
+        <v>1191</v>
+      </c>
+      <c r="E178" s="0" t="s">
+        <v>773</v>
+      </c>
+      <c r="F178" s="0" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="179" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A179" s="0" t="s">
+        <v>406</v>
+      </c>
+      <c r="C179" s="0" t="s">
+        <v>1192</v>
+      </c>
+      <c r="D179" s="0" t="s">
+        <v>1193</v>
+      </c>
+      <c r="E179" s="0" t="s">
+        <v>745</v>
+      </c>
+      <c r="F179" s="0" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="180" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A180" s="0" t="s">
+        <v>1194</v>
+      </c>
+      <c r="C180" s="0" t="s">
+        <v>1195</v>
+      </c>
+      <c r="D180" s="0" t="s">
+        <v>1196</v>
+      </c>
+      <c r="E180" s="0" t="s">
+        <v>745</v>
+      </c>
+      <c r="F180" s="0" t="s">
+        <v>1194</v>
+      </c>
+    </row>
+    <row r="181" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A181" s="0" t="s">
+        <v>414</v>
+      </c>
+      <c r="C181" s="0" t="s">
+        <v>1197</v>
+      </c>
+      <c r="D181" s="0" t="s">
+        <v>1198</v>
+      </c>
+      <c r="E181" s="0" t="s">
+        <v>782</v>
+      </c>
+      <c r="F181" s="0" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="182" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A182" s="0" t="s">
+        <v>1199</v>
+      </c>
+      <c r="C182" s="0" t="s">
+        <v>1200</v>
+      </c>
+      <c r="D182" s="0" t="s">
+        <v>1201</v>
+      </c>
+      <c r="E182" s="0" t="s">
+        <v>782</v>
+      </c>
+      <c r="F182" s="0" t="s">
+        <v>1199</v>
+      </c>
+    </row>
+    <row r="183" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A183" s="0" t="s">
+        <v>418</v>
+      </c>
+      <c r="C183" s="0" t="s">
+        <v>1202</v>
+      </c>
+      <c r="D183" s="0" t="s">
+        <v>1203</v>
+      </c>
+      <c r="E183" s="0" t="s">
+        <v>787</v>
+      </c>
+      <c r="F183" s="0" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="184" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A184" s="0" t="s">
+        <v>422</v>
+      </c>
+      <c r="C184" s="0" t="s">
+        <v>1204</v>
+      </c>
+      <c r="D184" s="0" t="s">
+        <v>1205</v>
+      </c>
+      <c r="E184" s="0" t="s">
+        <v>797</v>
+      </c>
+      <c r="F184" s="0" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="185" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A185" s="0" t="s">
+        <v>426</v>
+      </c>
+      <c r="C185" s="0" t="s">
+        <v>1206</v>
+      </c>
+      <c r="D185" s="0" t="s">
+        <v>1207</v>
+      </c>
+      <c r="E185" s="0" t="s">
+        <v>763</v>
+      </c>
+      <c r="F185" s="0" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="186" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A186" s="0" t="s">
+        <v>438</v>
+      </c>
+      <c r="C186" s="0" t="s">
+        <v>1208</v>
+      </c>
+      <c r="D186" s="0" t="s">
+        <v>1209</v>
+      </c>
+      <c r="E186" s="0" t="s">
+        <v>745</v>
+      </c>
+      <c r="F186" s="0" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="187" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A187" s="0" t="s">
+        <v>442</v>
+      </c>
+      <c r="C187" s="0" t="s">
+        <v>1210</v>
+      </c>
+      <c r="D187" s="0" t="s">
+        <v>1211</v>
+      </c>
+      <c r="E187" s="0" t="s">
+        <v>792</v>
+      </c>
+      <c r="F187" s="0" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="188" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A188" s="0" t="s">
+        <v>434</v>
+      </c>
+      <c r="C188" s="0" t="s">
+        <v>1212</v>
+      </c>
+      <c r="D188" s="0" t="s">
+        <v>1213</v>
+      </c>
+      <c r="E188" s="0" t="s">
+        <v>792</v>
+      </c>
+      <c r="F188" s="0" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="189" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A189" s="0" t="s">
+        <v>430</v>
+      </c>
+      <c r="C189" s="0" t="s">
+        <v>1214</v>
+      </c>
+      <c r="D189" s="0" t="s">
+        <v>1215</v>
+      </c>
+      <c r="E189" s="0" t="s">
+        <v>787</v>
+      </c>
+      <c r="F189" s="0" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="190" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A190" s="0" t="s">
+        <v>446</v>
+      </c>
+      <c r="C190" s="0" t="s">
+        <v>1216</v>
+      </c>
+      <c r="D190" s="0" t="s">
+        <v>1217</v>
+      </c>
+      <c r="E190" s="0" t="s">
+        <v>802</v>
+      </c>
+      <c r="F190" s="0" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="191" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A191" s="0" t="s">
+        <v>1218</v>
+      </c>
+      <c r="C191" s="0" t="s">
+        <v>1219</v>
+      </c>
+      <c r="D191" s="0" t="s">
+        <v>1220</v>
+      </c>
+      <c r="E191" s="0" t="s">
+        <v>758</v>
+      </c>
+      <c r="F191" s="0" t="s">
+        <v>1218</v>
+      </c>
+    </row>
+    <row r="192" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A192" s="0" t="s">
+        <v>454</v>
+      </c>
+      <c r="C192" s="0" t="s">
+        <v>1221</v>
+      </c>
+      <c r="D192" s="0" t="s">
+        <v>1222</v>
+      </c>
+      <c r="E192" s="0" t="s">
+        <v>787</v>
+      </c>
+      <c r="F192" s="0" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="193" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A193" s="0" t="s">
+        <v>458</v>
+      </c>
+      <c r="C193" s="0" t="s">
+        <v>1223</v>
+      </c>
+      <c r="D193" s="0" t="s">
+        <v>1224</v>
+      </c>
+      <c r="E193" s="0" t="s">
+        <v>750</v>
+      </c>
+      <c r="F193" s="0" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="194" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A194" s="0" t="s">
+        <v>450</v>
+      </c>
+      <c r="C194" s="0" t="s">
+        <v>1225</v>
+      </c>
+      <c r="D194" s="0" t="s">
+        <v>1226</v>
+      </c>
+      <c r="E194" s="0" t="s">
+        <v>782</v>
+      </c>
+      <c r="F194" s="0" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="195" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A195" s="0" t="s">
+        <v>462</v>
+      </c>
+      <c r="C195" s="0" t="s">
+        <v>1227</v>
+      </c>
+      <c r="D195" s="0" t="s">
+        <v>1228</v>
+      </c>
+      <c r="E195" s="0" t="s">
+        <v>745</v>
+      </c>
+      <c r="F195" s="0" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="196" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A196" s="0" t="s">
+        <v>466</v>
+      </c>
+      <c r="C196" s="0" t="s">
+        <v>1229</v>
+      </c>
+      <c r="D196" s="0" t="s">
+        <v>1230</v>
+      </c>
+      <c r="E196" s="0" t="s">
+        <v>773</v>
+      </c>
+      <c r="F196" s="0" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="197" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A197" s="0" t="s">
+        <v>1231</v>
+      </c>
+      <c r="C197" s="0" t="s">
+        <v>1232</v>
+      </c>
+      <c r="D197" s="0" t="s">
+        <v>1233</v>
+      </c>
+      <c r="E197" s="0" t="s">
+        <v>758</v>
+      </c>
+      <c r="F197" s="0" t="s">
+        <v>1231</v>
+      </c>
+    </row>
+    <row r="198" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A198" s="0" t="s">
+        <v>470</v>
+      </c>
+      <c r="C198" s="0" t="s">
+        <v>1234</v>
+      </c>
+      <c r="D198" s="0" t="s">
+        <v>1235</v>
+      </c>
+      <c r="E198" s="0" t="s">
+        <v>792</v>
+      </c>
+      <c r="F198" s="0" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="199" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A199" s="0" t="s">
+        <v>410</v>
+      </c>
+      <c r="C199" s="0" t="s">
+        <v>1236</v>
+      </c>
+      <c r="D199" s="0" t="s">
+        <v>1237</v>
+      </c>
+      <c r="E199" s="0" t="s">
+        <v>797</v>
+      </c>
+      <c r="F199" s="0" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="200" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A200" s="0" t="s">
+        <v>510</v>
+      </c>
+      <c r="C200" s="0" t="s">
+        <v>1238</v>
+      </c>
+      <c r="D200" s="0" t="s">
+        <v>1239</v>
+      </c>
+      <c r="E200" s="0" t="s">
+        <v>745</v>
+      </c>
+      <c r="F200" s="0" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="201" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A201" s="0" t="s">
+        <v>518</v>
+      </c>
+      <c r="C201" s="0" t="s">
+        <v>1240</v>
+      </c>
+      <c r="D201" s="0" t="s">
+        <v>1241</v>
+      </c>
+      <c r="E201" s="0" t="s">
+        <v>773</v>
+      </c>
+      <c r="F201" s="0" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="202" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A202" s="0" t="s">
+        <v>522</v>
+      </c>
+      <c r="C202" s="0" t="s">
+        <v>1242</v>
+      </c>
+      <c r="D202" s="0" t="s">
+        <v>1243</v>
+      </c>
+      <c r="E202" s="0" t="s">
+        <v>797</v>
+      </c>
+      <c r="F202" s="0" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="203" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A203" s="0" t="s">
+        <v>474</v>
+      </c>
+      <c r="C203" s="0" t="s">
+        <v>1244</v>
+      </c>
+      <c r="D203" s="0" t="s">
+        <v>1245</v>
+      </c>
+      <c r="E203" s="0" t="s">
+        <v>750</v>
+      </c>
+      <c r="F203" s="0" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="204" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A204" s="0" t="s">
+        <v>478</v>
+      </c>
+      <c r="C204" s="0" t="s">
+        <v>1246</v>
+      </c>
+      <c r="D204" s="0" t="s">
+        <v>1247</v>
+      </c>
+      <c r="E204" s="0" t="s">
+        <v>787</v>
+      </c>
+      <c r="F204" s="0" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="205" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A205" s="0" t="s">
+        <v>1248</v>
+      </c>
+      <c r="C205" s="0" t="s">
+        <v>1249</v>
+      </c>
+      <c r="D205" s="0" t="s">
+        <v>1250</v>
+      </c>
+      <c r="E205" s="0" t="s">
+        <v>768</v>
+      </c>
+      <c r="F205" s="0" t="s">
+        <v>1248</v>
+      </c>
+    </row>
+    <row r="206" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A206" s="0" t="s">
+        <v>482</v>
+      </c>
+      <c r="C206" s="0" t="s">
+        <v>1251</v>
+      </c>
+      <c r="D206" s="0" t="s">
+        <v>1252</v>
+      </c>
+      <c r="E206" s="0" t="s">
+        <v>768</v>
+      </c>
+      <c r="F206" s="0" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="207" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A207" s="0" t="s">
+        <v>490</v>
+      </c>
+      <c r="C207" s="0" t="s">
+        <v>1253</v>
+      </c>
+      <c r="D207" s="0" t="s">
+        <v>1254</v>
+      </c>
+      <c r="E207" s="0" t="s">
+        <v>773</v>
+      </c>
+      <c r="F207" s="0" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="208" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A208" s="0" t="s">
+        <v>494</v>
+      </c>
+      <c r="C208" s="0" t="s">
+        <v>1255</v>
+      </c>
+      <c r="D208" s="0" t="s">
+        <v>1256</v>
+      </c>
+      <c r="E208" s="0" t="s">
+        <v>792</v>
+      </c>
+      <c r="F208" s="0" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="209" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A209" s="0" t="s">
+        <v>498</v>
+      </c>
+      <c r="C209" s="0" t="s">
+        <v>1257</v>
+      </c>
+      <c r="D209" s="0" t="s">
+        <v>1258</v>
+      </c>
+      <c r="E209" s="0" t="s">
+        <v>797</v>
+      </c>
+      <c r="F209" s="0" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="210" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A210" s="0" t="s">
+        <v>502</v>
+      </c>
+      <c r="C210" s="0" t="s">
+        <v>1259</v>
+      </c>
+      <c r="D210" s="0" t="s">
+        <v>1260</v>
+      </c>
+      <c r="E210" s="0" t="s">
+        <v>787</v>
+      </c>
+      <c r="F210" s="0" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="211" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A211" s="0" t="s">
+        <v>506</v>
+      </c>
+      <c r="C211" s="0" t="s">
+        <v>1261</v>
+      </c>
+      <c r="D211" s="0" t="s">
+        <v>1262</v>
+      </c>
+      <c r="E211" s="0" t="s">
+        <v>773</v>
+      </c>
+      <c r="F211" s="0" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="212" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A212" s="0" t="s">
+        <v>514</v>
+      </c>
+      <c r="C212" s="0" t="s">
+        <v>1263</v>
+      </c>
+      <c r="D212" s="0" t="s">
+        <v>1264</v>
+      </c>
+      <c r="E212" s="0" t="s">
+        <v>787</v>
+      </c>
+      <c r="F212" s="0" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="213" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A213" s="0" t="s">
+        <v>486</v>
+      </c>
+      <c r="C213" s="0" t="s">
+        <v>1265</v>
+      </c>
+      <c r="D213" s="0" t="s">
+        <v>1266</v>
+      </c>
+      <c r="E213" s="0" t="s">
+        <v>782</v>
+      </c>
+      <c r="F213" s="0" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="214" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A214" s="0" t="s">
+        <v>535</v>
+      </c>
+      <c r="C214" s="0" t="s">
+        <v>1267</v>
+      </c>
+      <c r="D214" s="0" t="s">
+        <v>1268</v>
+      </c>
+      <c r="E214" s="0" t="s">
+        <v>763</v>
+      </c>
+      <c r="F214" s="0" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="215" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A215" s="0" t="s">
+        <v>539</v>
+      </c>
+      <c r="C215" s="0" t="s">
+        <v>1269</v>
+      </c>
+      <c r="D215" s="0" t="s">
+        <v>1270</v>
+      </c>
+      <c r="E215" s="0" t="s">
+        <v>763</v>
+      </c>
+      <c r="F215" s="0" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="216" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A216" s="0" t="s">
+        <v>1271</v>
+      </c>
+      <c r="C216" s="0" t="s">
+        <v>1272</v>
+      </c>
+      <c r="D216" s="0" t="s">
+        <v>1273</v>
+      </c>
+      <c r="E216" s="0" t="s">
+        <v>768</v>
+      </c>
+      <c r="F216" s="0" t="s">
+        <v>1271</v>
+      </c>
+    </row>
+    <row r="217" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A217" s="0" t="s">
+        <v>543</v>
+      </c>
+      <c r="C217" s="0" t="s">
+        <v>1274</v>
+      </c>
+      <c r="D217" s="0" t="s">
+        <v>1275</v>
+      </c>
+      <c r="E217" s="0" t="s">
+        <v>802</v>
+      </c>
+      <c r="F217" s="0" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="218" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A218" s="0" t="s">
+        <v>547</v>
+      </c>
+      <c r="C218" s="0" t="s">
+        <v>1276</v>
+      </c>
+      <c r="D218" s="0" t="s">
+        <v>1277</v>
+      </c>
+      <c r="E218" s="0" t="s">
+        <v>750</v>
+      </c>
+      <c r="F218" s="0" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="219" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A219" s="0" t="s">
+        <v>551</v>
+      </c>
+      <c r="C219" s="0" t="s">
+        <v>1278</v>
+      </c>
+      <c r="D219" s="0" t="s">
+        <v>1279</v>
+      </c>
+      <c r="E219" s="0" t="s">
+        <v>768</v>
+      </c>
+      <c r="F219" s="0" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="220" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A220" s="0" t="s">
+        <v>555</v>
+      </c>
+      <c r="C220" s="0" t="s">
+        <v>1280</v>
+      </c>
+      <c r="D220" s="0" t="s">
+        <v>1281</v>
+      </c>
+      <c r="E220" s="0" t="s">
+        <v>797</v>
+      </c>
+      <c r="F220" s="0" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="221" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A221" s="0" t="s">
+        <v>559</v>
+      </c>
+      <c r="C221" s="0" t="s">
+        <v>1282</v>
+      </c>
+      <c r="D221" s="0" t="s">
+        <v>1283</v>
+      </c>
+      <c r="E221" s="0" t="s">
+        <v>797</v>
+      </c>
+      <c r="F221" s="0" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="222" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A222" s="0" t="s">
+        <v>563</v>
+      </c>
+      <c r="C222" s="0" t="s">
+        <v>1284</v>
+      </c>
+      <c r="D222" s="0" t="s">
+        <v>1285</v>
+      </c>
+      <c r="E222" s="0" t="s">
+        <v>797</v>
+      </c>
+      <c r="F222" s="0" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="223" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A223" s="0" t="s">
+        <v>567</v>
+      </c>
+      <c r="C223" s="0" t="s">
+        <v>1286</v>
+      </c>
+      <c r="D223" s="0" t="s">
+        <v>1287</v>
+      </c>
+      <c r="E223" s="0" t="s">
+        <v>773</v>
+      </c>
+      <c r="F223" s="0" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="224" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A224" s="0" t="s">
+        <v>526</v>
+      </c>
+      <c r="C224" s="0" t="s">
+        <v>1288</v>
+      </c>
+      <c r="D224" s="0" t="s">
+        <v>1289</v>
+      </c>
+      <c r="E224" s="0" t="s">
+        <v>797</v>
+      </c>
+      <c r="F224" s="0" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="225" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A225" s="0" t="s">
+        <v>534</v>
+      </c>
+      <c r="C225" s="0" t="s">
+        <v>1290</v>
+      </c>
+      <c r="D225" s="0" t="s">
+        <v>1291</v>
+      </c>
+      <c r="E225" s="0" t="s">
+        <v>782</v>
+      </c>
+      <c r="F225" s="0" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="226" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A226" s="0" t="s">
+        <v>1292</v>
+      </c>
+      <c r="C226" s="0" t="s">
+        <v>1293</v>
+      </c>
+      <c r="D226" s="0" t="s">
+        <v>1294</v>
+      </c>
+      <c r="E226" s="0" t="s">
+        <v>787</v>
+      </c>
+      <c r="F226" s="0" t="s">
+        <v>1292</v>
+      </c>
+    </row>
+    <row r="227" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A227" s="0" t="s">
+        <v>571</v>
+      </c>
+      <c r="C227" s="0" t="s">
+        <v>1295</v>
+      </c>
+      <c r="D227" s="0" t="s">
+        <v>1296</v>
+      </c>
+      <c r="E227" s="0" t="s">
+        <v>792</v>
+      </c>
+      <c r="F227" s="0" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="228" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A228" s="0" t="s">
+        <v>575</v>
+      </c>
+      <c r="C228" s="0" t="s">
+        <v>1297</v>
+      </c>
+      <c r="D228" s="0" t="s">
+        <v>1298</v>
+      </c>
+      <c r="E228" s="0" t="s">
+        <v>797</v>
+      </c>
+      <c r="F228" s="0" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="229" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A229" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="C229" s="0" t="s">
+        <v>1299</v>
+      </c>
+      <c r="D229" s="0" t="s">
+        <v>1300</v>
+      </c>
+      <c r="E229" s="0" t="s">
+        <v>763</v>
+      </c>
+      <c r="F229" s="0" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="230" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A230" s="0" t="s">
+        <v>579</v>
+      </c>
+      <c r="C230" s="0" t="s">
+        <v>1301</v>
+      </c>
+      <c r="D230" s="0" t="s">
+        <v>1302</v>
+      </c>
+      <c r="E230" s="0" t="s">
+        <v>745</v>
+      </c>
+      <c r="F230" s="0" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="231" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A231" s="0" t="s">
+        <v>1303</v>
+      </c>
+      <c r="C231" s="0" t="s">
+        <v>1304</v>
+      </c>
+      <c r="D231" s="0" t="s">
+        <v>1305</v>
+      </c>
+      <c r="E231" s="0" t="s">
+        <v>758</v>
+      </c>
+      <c r="F231" s="0" t="s">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="232" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A232" s="0" t="s">
+        <v>583</v>
+      </c>
+      <c r="C232" s="0" t="s">
+        <v>1306</v>
+      </c>
+      <c r="D232" s="0" t="s">
+        <v>1307</v>
+      </c>
+      <c r="E232" s="0" t="s">
+        <v>750</v>
+      </c>
+      <c r="F232" s="0" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="233" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A233" s="0" t="s">
+        <v>587</v>
+      </c>
+      <c r="C233" s="0" t="s">
+        <v>1308</v>
+      </c>
+      <c r="D233" s="0" t="s">
+        <v>1309</v>
+      </c>
+      <c r="E233" s="0" t="s">
+        <v>792</v>
+      </c>
+      <c r="F233" s="0" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="234" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A234" s="0" t="s">
+        <v>1310</v>
+      </c>
+      <c r="C234" s="0" t="s">
+        <v>1311</v>
+      </c>
+      <c r="D234" s="0" t="s">
+        <v>1312</v>
+      </c>
+      <c r="E234" s="0" t="s">
+        <v>758</v>
+      </c>
+      <c r="F234" s="0" t="s">
+        <v>1310</v>
+      </c>
+    </row>
+    <row r="235" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A235" s="0" t="s">
+        <v>599</v>
+      </c>
+      <c r="C235" s="0" t="s">
+        <v>1313</v>
+      </c>
+      <c r="D235" s="0" t="s">
+        <v>1314</v>
+      </c>
+      <c r="E235" s="0" t="s">
+        <v>763</v>
+      </c>
+      <c r="F235" s="0" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="236" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A236" s="0" t="s">
+        <v>603</v>
+      </c>
+      <c r="C236" s="0" t="s">
+        <v>1315</v>
+      </c>
+      <c r="D236" s="0" t="s">
+        <v>1316</v>
+      </c>
+      <c r="E236" s="0" t="s">
+        <v>745</v>
+      </c>
+      <c r="F236" s="0" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="237" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A237" s="0" t="s">
+        <v>1317</v>
+      </c>
+      <c r="C237" s="0" t="s">
+        <v>1318</v>
+      </c>
+      <c r="D237" s="0" t="s">
+        <v>1319</v>
+      </c>
+      <c r="E237" s="0" t="s">
+        <v>758</v>
+      </c>
+      <c r="F237" s="0" t="s">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="238" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A238" s="0" t="s">
+        <v>607</v>
+      </c>
+      <c r="C238" s="0" t="s">
+        <v>1320</v>
+      </c>
+      <c r="D238" s="0" t="s">
+        <v>1321</v>
+      </c>
+      <c r="E238" s="0" t="s">
+        <v>745</v>
+      </c>
+      <c r="F238" s="0" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="239" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A239" s="0" t="s">
+        <v>591</v>
+      </c>
+      <c r="C239" s="0" t="s">
+        <v>1322</v>
+      </c>
+      <c r="D239" s="0" t="s">
+        <v>1323</v>
+      </c>
+      <c r="E239" s="0" t="s">
+        <v>802</v>
+      </c>
+      <c r="F239" s="0" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="240" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A240" s="0" t="s">
+        <v>595</v>
+      </c>
+      <c r="C240" s="0" t="s">
+        <v>1324</v>
+      </c>
+      <c r="D240" s="0" t="s">
+        <v>1325</v>
+      </c>
+      <c r="E240" s="0" t="s">
+        <v>745</v>
+      </c>
+      <c r="F240" s="0" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="241" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A241" s="0" t="s">
+        <v>1326</v>
+      </c>
+      <c r="C241" s="0" t="s">
+        <v>1327</v>
+      </c>
+      <c r="D241" s="0" t="s">
+        <v>1328</v>
+      </c>
+      <c r="E241" s="0" t="s">
+        <v>792</v>
+      </c>
+      <c r="F241" s="0" t="s">
+        <v>1326</v>
+      </c>
+    </row>
+    <row r="242" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A242" s="0" t="s">
+        <v>647</v>
+      </c>
+      <c r="C242" s="0" t="s">
+        <v>1329</v>
+      </c>
+      <c r="D242" s="0" t="s">
+        <v>1330</v>
+      </c>
+      <c r="E242" s="0" t="s">
+        <v>797</v>
+      </c>
+      <c r="F242" s="0" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="243" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A243" s="0" t="s">
+        <v>615</v>
+      </c>
+      <c r="C243" s="0" t="s">
+        <v>1331</v>
+      </c>
+      <c r="D243" s="0" t="s">
+        <v>1332</v>
+      </c>
+      <c r="E243" s="0" t="s">
+        <v>768</v>
+      </c>
+      <c r="F243" s="0" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="244" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A244" s="0" t="s">
+        <v>623</v>
+      </c>
+      <c r="C244" s="0" t="s">
+        <v>1333</v>
+      </c>
+      <c r="D244" s="0" t="s">
+        <v>1334</v>
+      </c>
+      <c r="E244" s="0" t="s">
+        <v>750</v>
+      </c>
+      <c r="F244" s="0" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="245" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A245" s="0" t="s">
+        <v>627</v>
+      </c>
+      <c r="C245" s="0" t="s">
+        <v>1335</v>
+      </c>
+      <c r="D245" s="0" t="s">
+        <v>1336</v>
+      </c>
+      <c r="E245" s="0" t="s">
+        <v>763</v>
+      </c>
+      <c r="F245" s="0" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="246" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A246" s="0" t="s">
+        <v>631</v>
+      </c>
+      <c r="C246" s="0" t="s">
+        <v>1337</v>
+      </c>
+      <c r="D246" s="0" t="s">
+        <v>1338</v>
+      </c>
+      <c r="E246" s="0" t="s">
+        <v>750</v>
+      </c>
+      <c r="F246" s="0" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="247" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A247" s="0" t="s">
+        <v>635</v>
+      </c>
+      <c r="C247" s="0" t="s">
+        <v>1339</v>
+      </c>
+      <c r="D247" s="0" t="s">
+        <v>1340</v>
+      </c>
+      <c r="E247" s="0" t="s">
+        <v>745</v>
+      </c>
+      <c r="F247" s="0" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="248" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A248" s="0" t="s">
+        <v>639</v>
+      </c>
+      <c r="C248" s="0" t="s">
+        <v>1341</v>
+      </c>
+      <c r="D248" s="0" t="s">
+        <v>1342</v>
+      </c>
+      <c r="E248" s="0" t="s">
+        <v>750</v>
+      </c>
+      <c r="F248" s="0" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="249" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A249" s="0" t="s">
+        <v>643</v>
+      </c>
+      <c r="C249" s="0" t="s">
+        <v>1343</v>
+      </c>
+      <c r="D249" s="0" t="s">
+        <v>1344</v>
+      </c>
+      <c r="E249" s="0" t="s">
+        <v>745</v>
+      </c>
+      <c r="F249" s="0" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="250" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A250" s="0" t="s">
+        <v>1345</v>
+      </c>
+      <c r="C250" s="0" t="s">
+        <v>1346</v>
+      </c>
+      <c r="D250" s="0" t="s">
+        <v>1347</v>
+      </c>
+      <c r="E250" s="0" t="s">
+        <v>758</v>
+      </c>
+      <c r="F250" s="0" t="s">
+        <v>1345</v>
+      </c>
+    </row>
+    <row r="251" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A251" s="0" t="s">
+        <v>1348</v>
+      </c>
+      <c r="C251" s="0" t="s">
+        <v>1349</v>
+      </c>
+      <c r="D251" s="0" t="s">
+        <v>1350</v>
+      </c>
+      <c r="E251" s="0" t="s">
+        <v>758</v>
+      </c>
+      <c r="F251" s="0" t="s">
+        <v>1348</v>
+      </c>
+    </row>
+    <row r="252" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A252" s="0" t="s">
+        <v>651</v>
+      </c>
+      <c r="C252" s="0" t="s">
+        <v>1351</v>
+      </c>
+      <c r="D252" s="0" t="s">
+        <v>1352</v>
+      </c>
+      <c r="E252" s="0" t="s">
+        <v>797</v>
+      </c>
+      <c r="F252" s="0" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="253" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A253" s="0" t="s">
+        <v>655</v>
+      </c>
+      <c r="C253" s="0" t="s">
+        <v>1353</v>
+      </c>
+      <c r="D253" s="0" t="s">
+        <v>1354</v>
+      </c>
+      <c r="E253" s="0" t="s">
+        <v>797</v>
+      </c>
+      <c r="F253" s="0" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="254" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A254" s="0" t="s">
+        <v>659</v>
+      </c>
+      <c r="C254" s="0" t="s">
+        <v>1355</v>
+      </c>
+      <c r="D254" s="0" t="s">
+        <v>1356</v>
+      </c>
+      <c r="E254" s="0" t="s">
+        <v>802</v>
+      </c>
+      <c r="F254" s="0" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="255" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A255" s="0" t="s">
+        <v>663</v>
+      </c>
+      <c r="C255" s="0" t="s">
+        <v>1357</v>
+      </c>
+      <c r="D255" s="0" t="s">
+        <v>1358</v>
+      </c>
+      <c r="E255" s="0" t="s">
+        <v>745</v>
+      </c>
+      <c r="F255" s="0" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="256" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A256" s="0" t="s">
+        <v>667</v>
+      </c>
+      <c r="C256" s="0" t="s">
+        <v>1359</v>
+      </c>
+      <c r="D256" s="0" t="s">
+        <v>1360</v>
+      </c>
+      <c r="E256" s="0" t="s">
+        <v>745</v>
+      </c>
+      <c r="F256" s="0" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="257" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A257" s="0" t="s">
+        <v>671</v>
+      </c>
+      <c r="C257" s="0" t="s">
+        <v>1361</v>
+      </c>
+      <c r="D257" s="0" t="s">
+        <v>1362</v>
+      </c>
+      <c r="E257" s="0" t="s">
+        <v>745</v>
+      </c>
+      <c r="F257" s="0" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="258" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A258" s="0" t="s">
+        <v>675</v>
+      </c>
+      <c r="C258" s="0" t="s">
+        <v>1363</v>
+      </c>
+      <c r="D258" s="0" t="s">
+        <v>1364</v>
+      </c>
+      <c r="E258" s="0" t="s">
+        <v>745</v>
+      </c>
+      <c r="F258" s="0" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="259" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A259" s="0" t="s">
+        <v>679</v>
+      </c>
+      <c r="C259" s="0" t="s">
+        <v>1365</v>
+      </c>
+      <c r="D259" s="0" t="s">
+        <v>1366</v>
+      </c>
+      <c r="E259" s="0" t="s">
+        <v>745</v>
+      </c>
+      <c r="F259" s="0" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="260" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A260" s="0" t="s">
+        <v>611</v>
+      </c>
+      <c r="C260" s="0" t="s">
+        <v>1367</v>
+      </c>
+      <c r="D260" s="0" t="s">
+        <v>1368</v>
+      </c>
+      <c r="E260" s="0" t="s">
+        <v>773</v>
+      </c>
+      <c r="F260" s="0" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="261" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A261" s="0" t="s">
+        <v>619</v>
+      </c>
+      <c r="C261" s="0" t="s">
+        <v>1369</v>
+      </c>
+      <c r="D261" s="0" t="s">
+        <v>1370</v>
+      </c>
+      <c r="E261" s="0" t="s">
+        <v>763</v>
+      </c>
+      <c r="F261" s="0" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="262" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A262" s="0" t="s">
+        <v>683</v>
+      </c>
+      <c r="C262" s="0" t="s">
+        <v>1371</v>
+      </c>
+      <c r="D262" s="0" t="s">
+        <v>1372</v>
+      </c>
+      <c r="E262" s="0" t="s">
+        <v>802</v>
+      </c>
+      <c r="F262" s="0" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="263" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A263" s="0" t="s">
+        <v>1373</v>
+      </c>
+      <c r="C263" s="0" t="s">
+        <v>1374</v>
+      </c>
+      <c r="D263" s="0" t="s">
+        <v>1375</v>
+      </c>
+      <c r="E263" s="0" t="s">
+        <v>758</v>
+      </c>
+      <c r="F263" s="0" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="264" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A264" s="0" t="s">
+        <v>1376</v>
+      </c>
+      <c r="C264" s="0" t="s">
+        <v>1377</v>
+      </c>
+      <c r="D264" s="0" t="s">
+        <v>1378</v>
+      </c>
+      <c r="E264" s="0" t="s">
+        <v>758</v>
+      </c>
+      <c r="F264" s="0" t="s">
+        <v>1376</v>
+      </c>
+    </row>
+    <row r="265" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A265" s="0" t="s">
+        <v>687</v>
+      </c>
+      <c r="C265" s="0" t="s">
+        <v>1379</v>
+      </c>
+      <c r="D265" s="0" t="s">
+        <v>1380</v>
+      </c>
+      <c r="E265" s="0" t="s">
+        <v>763</v>
+      </c>
+      <c r="F265" s="0" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="266" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A266" s="0" t="s">
+        <v>691</v>
+      </c>
+      <c r="C266" s="0" t="s">
+        <v>1381</v>
+      </c>
+      <c r="D266" s="0" t="s">
+        <v>1382</v>
+      </c>
+      <c r="E266" s="0" t="s">
+        <v>787</v>
+      </c>
+      <c r="F266" s="0" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="267" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A267" s="0" t="s">
+        <v>695</v>
+      </c>
+      <c r="C267" s="0" t="s">
+        <v>1383</v>
+      </c>
+      <c r="D267" s="0" t="s">
+        <v>1384</v>
+      </c>
+      <c r="E267" s="0" t="s">
+        <v>802</v>
+      </c>
+      <c r="F267" s="0" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="268" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A268" s="0" t="s">
+        <v>292</v>
+      </c>
+      <c r="C268" s="0" t="s">
+        <v>1385</v>
+      </c>
+      <c r="D268" s="0" t="s">
+        <v>1386</v>
+      </c>
+      <c r="E268" s="0" t="s">
+        <v>797</v>
+      </c>
+      <c r="F268" s="0" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="269" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A269" s="0" t="s">
+        <v>274</v>
+      </c>
+      <c r="C269" s="0" t="s">
+        <v>1387</v>
+      </c>
+      <c r="D269" s="0" t="s">
+        <v>1388</v>
+      </c>
+      <c r="E269" s="0" t="s">
+        <v>745</v>
+      </c>
+      <c r="F269" s="0" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="270" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A270" s="0" t="s">
+        <v>284</v>
+      </c>
+      <c r="C270" s="0" t="s">
+        <v>1389</v>
+      </c>
+      <c r="D270" s="0" t="s">
+        <v>1390</v>
+      </c>
+      <c r="E270" s="0" t="s">
+        <v>750</v>
+      </c>
+      <c r="F270" s="0" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="271" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A271" s="0" t="s">
+        <v>288</v>
+      </c>
+      <c r="C271" s="0" t="s">
+        <v>1391</v>
+      </c>
+      <c r="D271" s="0" t="s">
+        <v>1392</v>
+      </c>
+      <c r="E271" s="0" t="s">
+        <v>787</v>
+      </c>
+      <c r="F271" s="0" t="s">
+        <v>288</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>